--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15BFC58-B3F1-7443-B51B-823A2F8A085D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A44DBD-D743-824C-9974-82DAE6E57959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="bagging" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>0.1262385</t>
   </si>
@@ -105,36 +106,6 @@
     <t>0.8920672</t>
   </si>
   <si>
-    <t>0.2220704</t>
-  </si>
-  <si>
-    <t>0.7756616</t>
-  </si>
-  <si>
-    <t>0.2218996</t>
-  </si>
-  <si>
-    <t>0.7773057</t>
-  </si>
-  <si>
-    <t>0.2217287</t>
-  </si>
-  <si>
-    <t>0.7766412</t>
-  </si>
-  <si>
-    <t>0.2224120</t>
-  </si>
-  <si>
-    <t>0.7769551</t>
-  </si>
-  <si>
-    <t>0.2212163</t>
-  </si>
-  <si>
-    <t>0.7763587</t>
-  </si>
-  <si>
     <t>LOGISTICA MODELO 1</t>
   </si>
   <si>
@@ -169,6 +140,120 @@
   </si>
   <si>
     <t>0.7544779</t>
+  </si>
+  <si>
+    <t>0.10061496</t>
+  </si>
+  <si>
+    <t>0.9112628</t>
+  </si>
+  <si>
+    <t>0.10010249</t>
+  </si>
+  <si>
+    <t>0.9130599</t>
+  </si>
+  <si>
+    <t>0.09890673</t>
+  </si>
+  <si>
+    <t>0.9136861</t>
+  </si>
+  <si>
+    <t>0.9137881</t>
+  </si>
+  <si>
+    <t>0.09941920</t>
+  </si>
+  <si>
+    <t>0.9138355</t>
+  </si>
+  <si>
+    <t>BAGGING MODELO 2</t>
+  </si>
+  <si>
+    <t>0.10146908</t>
+  </si>
+  <si>
+    <t>0.9118874</t>
+  </si>
+  <si>
+    <t>0.10027332</t>
+  </si>
+  <si>
+    <t>0.9132580</t>
+  </si>
+  <si>
+    <t>0.09924838</t>
+  </si>
+  <si>
+    <t>0.9133266</t>
+  </si>
+  <si>
+    <t>0.9126957</t>
+  </si>
+  <si>
+    <t>0.9122042</t>
+  </si>
+  <si>
+    <t>BAGGING MODELO 1</t>
+  </si>
+  <si>
+    <t>0.2244619</t>
+  </si>
+  <si>
+    <t>0.7740665</t>
+  </si>
+  <si>
+    <t>0.2242911</t>
+  </si>
+  <si>
+    <t>0.7758295</t>
+  </si>
+  <si>
+    <t>0.2241203</t>
+  </si>
+  <si>
+    <t>0.7755577</t>
+  </si>
+  <si>
+    <t>0.2227537</t>
+  </si>
+  <si>
+    <t>0.7755541</t>
+  </si>
+  <si>
+    <t>0.2237786</t>
+  </si>
+  <si>
+    <t>0.7757386</t>
+  </si>
+  <si>
+    <t>0.1077895</t>
+  </si>
+  <si>
+    <t>0.8945549</t>
+  </si>
+  <si>
+    <t>0.8947579</t>
+  </si>
+  <si>
+    <t>0.1083020</t>
+  </si>
+  <si>
+    <t>0.8927043</t>
+  </si>
+  <si>
+    <t>0.1074479</t>
+  </si>
+  <si>
+    <t>0.8941024</t>
+  </si>
+  <si>
+    <t>0.1096686</t>
+  </si>
+  <si>
+    <t>0.8923189</t>
   </si>
 </sst>
 </file>
@@ -529,7 +614,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K10" sqref="K10:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,112 +635,359 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="A2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,6 +1098,116 @@
       </c>
       <c r="C21" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A44DBD-D743-824C-9974-82DAE6E57959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83F377-D9E4-2140-85B9-631265AC6B2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,34 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
-  <si>
-    <t>0.1262385</t>
-  </si>
-  <si>
-    <t>0.8808824</t>
-  </si>
-  <si>
-    <t>0.1231636</t>
-  </si>
-  <si>
-    <t>0.8822305</t>
-  </si>
-  <si>
-    <t>0.1238469</t>
-  </si>
-  <si>
-    <t>0.8830611</t>
-  </si>
-  <si>
-    <t>0.1221387</t>
-  </si>
-  <si>
-    <t>0.8847963</t>
-  </si>
-  <si>
-    <t>0.8819496</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
   <si>
     <t>tasa</t>
   </si>
@@ -142,60 +115,15 @@
     <t>0.7544779</t>
   </si>
   <si>
-    <t>0.10061496</t>
-  </si>
-  <si>
-    <t>0.9112628</t>
-  </si>
-  <si>
-    <t>0.10010249</t>
-  </si>
-  <si>
-    <t>0.9130599</t>
-  </si>
-  <si>
     <t>0.09890673</t>
   </si>
   <si>
-    <t>0.9136861</t>
-  </si>
-  <si>
-    <t>0.9137881</t>
-  </si>
-  <si>
-    <t>0.09941920</t>
-  </si>
-  <si>
-    <t>0.9138355</t>
-  </si>
-  <si>
     <t>BAGGING MODELO 2</t>
   </si>
   <si>
-    <t>0.10146908</t>
-  </si>
-  <si>
-    <t>0.9118874</t>
-  </si>
-  <si>
     <t>0.10027332</t>
   </si>
   <si>
-    <t>0.9132580</t>
-  </si>
-  <si>
-    <t>0.09924838</t>
-  </si>
-  <si>
-    <t>0.9133266</t>
-  </si>
-  <si>
-    <t>0.9126957</t>
-  </si>
-  <si>
-    <t>0.9122042</t>
-  </si>
-  <si>
     <t>BAGGING MODELO 1</t>
   </si>
   <si>
@@ -254,6 +182,54 @@
   </si>
   <si>
     <t>0.8923189</t>
+  </si>
+  <si>
+    <t>0.10095661</t>
+  </si>
+  <si>
+    <t>0.10112743</t>
+  </si>
+  <si>
+    <t>0.9126257</t>
+  </si>
+  <si>
+    <t>0.09993167</t>
+  </si>
+  <si>
+    <t>0.9144836</t>
+  </si>
+  <si>
+    <t>0.9145415</t>
+  </si>
+  <si>
+    <t>0.09959002</t>
+  </si>
+  <si>
+    <t>0.9140330</t>
+  </si>
+  <si>
+    <t>0.9140948</t>
+  </si>
+  <si>
+    <t>0.9112741</t>
+  </si>
+  <si>
+    <t>0.9134073</t>
+  </si>
+  <si>
+    <t>0.09873591</t>
+  </si>
+  <si>
+    <t>0.9138996</t>
+  </si>
+  <si>
+    <t>0.10129826</t>
+  </si>
+  <si>
+    <t>0.9130624</t>
+  </si>
+  <si>
+    <t>0.9129163</t>
   </si>
 </sst>
 </file>
@@ -613,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD02A42-AD32-D845-B847-33E6CA93CE32}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,233 +600,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -863,351 +839,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="A2:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83F377-D9E4-2140-85B9-631265AC6B2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB5400A-1B09-B541-ADD1-B1E6B9FC7C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="avnnet" sheetId="1" r:id="rId1"/>
     <sheet name="bagging" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
   <si>
     <t>tasa</t>
   </si>
@@ -46,190 +46,238 @@
     <t>modelo</t>
   </si>
   <si>
+    <t>0.2160916</t>
+  </si>
+  <si>
+    <t>0.7546320</t>
+  </si>
+  <si>
+    <t>0.2162624</t>
+  </si>
+  <si>
+    <t>0.7551385</t>
+  </si>
+  <si>
+    <t>0.2172873</t>
+  </si>
+  <si>
+    <t>0.7551411</t>
+  </si>
+  <si>
+    <t>0.2167749</t>
+  </si>
+  <si>
+    <t>0.7545244</t>
+  </si>
+  <si>
+    <t>0.2154083</t>
+  </si>
+  <si>
+    <t>0.7544779</t>
+  </si>
+  <si>
+    <t>0.2222412</t>
+  </si>
+  <si>
+    <t>0.7724430</t>
+  </si>
+  <si>
+    <t>0.2203621</t>
+  </si>
+  <si>
+    <t>0.7739298</t>
+  </si>
+  <si>
+    <t>0.2212163</t>
+  </si>
+  <si>
+    <t>0.7730279</t>
+  </si>
+  <si>
+    <t>0.2210454</t>
+  </si>
+  <si>
+    <t>0.7733223</t>
+  </si>
+  <si>
+    <t>0.2208746</t>
+  </si>
+  <si>
+    <t>0.7736318</t>
+  </si>
+  <si>
+    <t>0.2193372</t>
+  </si>
+  <si>
+    <t>0.7748715</t>
+  </si>
+  <si>
+    <t>0.2217287</t>
+  </si>
+  <si>
+    <t>0.7738448</t>
+  </si>
+  <si>
+    <t>0.7742837</t>
+  </si>
+  <si>
+    <t>0.7726884</t>
+  </si>
+  <si>
+    <t>0.2234370</t>
+  </si>
+  <si>
+    <t>0.7727600</t>
+  </si>
+  <si>
+    <t>0.2155791</t>
+  </si>
+  <si>
+    <t>0.7559107</t>
+  </si>
+  <si>
+    <t>0.2171165</t>
+  </si>
+  <si>
+    <t>0.7550804</t>
+  </si>
+  <si>
+    <t>0.7551316</t>
+  </si>
+  <si>
+    <t>0.2164332</t>
+  </si>
+  <si>
+    <t>0.7546825</t>
+  </si>
+  <si>
+    <t>0.7543872</t>
+  </si>
+  <si>
+    <t>LOG. MODELO 1</t>
+  </si>
+  <si>
+    <t>LOG. MODELO 2</t>
+  </si>
+  <si>
+    <t>0.1033481</t>
+  </si>
+  <si>
+    <t>0.1067646</t>
+  </si>
+  <si>
+    <t>0.8960432</t>
+  </si>
+  <si>
+    <t>0.1062521</t>
+  </si>
+  <si>
+    <t>0.8974809</t>
+  </si>
+  <si>
+    <t>0.1055688</t>
+  </si>
+  <si>
+    <t>0.8947908</t>
+  </si>
+  <si>
+    <t>0.1064230</t>
+  </si>
+  <si>
+    <t>0.8982033</t>
+  </si>
+  <si>
+    <t>0.1045439</t>
+  </si>
+  <si>
+    <t>0.8964518</t>
+  </si>
+  <si>
+    <t>0.1065938</t>
+  </si>
+  <si>
+    <t>0.1059105</t>
+  </si>
+  <si>
+    <t>0.1088145</t>
+  </si>
+  <si>
+    <t>0.1089853</t>
+  </si>
+  <si>
+    <t>0.8980774</t>
+  </si>
+  <si>
+    <t>0.1141100</t>
+  </si>
+  <si>
+    <t>0.8969203</t>
+  </si>
+  <si>
+    <t>0.1110352</t>
+  </si>
+  <si>
+    <t>0.9028122</t>
+  </si>
+  <si>
+    <t>0.1100102</t>
+  </si>
+  <si>
+    <t>0.8974087</t>
+  </si>
+  <si>
+    <t>0.1117185</t>
+  </si>
+  <si>
+    <t>0.8941729</t>
+  </si>
+  <si>
+    <t>0.8965810</t>
+  </si>
+  <si>
+    <t>0.8945043</t>
+  </si>
+  <si>
+    <t>0.8990411</t>
+  </si>
+  <si>
+    <t>0.8969116</t>
+  </si>
+  <si>
+    <t>0.8957565</t>
+  </si>
+  <si>
+    <t>0.8957019</t>
+  </si>
+  <si>
+    <t>0.1105227</t>
+  </si>
+  <si>
+    <t>0.8958447</t>
+  </si>
+  <si>
+    <t>0.1106935</t>
+  </si>
+  <si>
+    <t>0.8996416</t>
+  </si>
+  <si>
+    <t>0.1153058</t>
+  </si>
+  <si>
+    <t>0.8968740</t>
+  </si>
+  <si>
+    <t>0.1118893</t>
+  </si>
+  <si>
+    <t>0.8967188</t>
+  </si>
+  <si>
     <t>AVNNET MODELO 1</t>
   </si>
   <si>
     <t>AVNNET MODELO 2</t>
-  </si>
-  <si>
-    <t>0.1144517</t>
-  </si>
-  <si>
-    <t>0.8987819</t>
-  </si>
-  <si>
-    <t>0.1199180</t>
-  </si>
-  <si>
-    <t>0.8947841</t>
-  </si>
-  <si>
-    <t>0.1153058</t>
-  </si>
-  <si>
-    <t>0.8990264</t>
-  </si>
-  <si>
-    <t>0.1132559</t>
-  </si>
-  <si>
-    <t>0.8958254</t>
-  </si>
-  <si>
-    <t>0.8920672</t>
-  </si>
-  <si>
-    <t>LOGISTICA MODELO 1</t>
-  </si>
-  <si>
-    <t>LOGISTICA MODELO 2</t>
-  </si>
-  <si>
-    <t>0.2160916</t>
-  </si>
-  <si>
-    <t>0.7546320</t>
-  </si>
-  <si>
-    <t>0.2162624</t>
-  </si>
-  <si>
-    <t>0.7551385</t>
-  </si>
-  <si>
-    <t>0.2172873</t>
-  </si>
-  <si>
-    <t>0.7551411</t>
-  </si>
-  <si>
-    <t>0.2167749</t>
-  </si>
-  <si>
-    <t>0.7545244</t>
-  </si>
-  <si>
-    <t>0.2154083</t>
-  </si>
-  <si>
-    <t>0.7544779</t>
-  </si>
-  <si>
-    <t>0.09890673</t>
-  </si>
-  <si>
-    <t>BAGGING MODELO 2</t>
-  </si>
-  <si>
-    <t>0.10027332</t>
-  </si>
-  <si>
-    <t>BAGGING MODELO 1</t>
-  </si>
-  <si>
-    <t>0.2244619</t>
-  </si>
-  <si>
-    <t>0.7740665</t>
-  </si>
-  <si>
-    <t>0.2242911</t>
-  </si>
-  <si>
-    <t>0.7758295</t>
-  </si>
-  <si>
-    <t>0.2241203</t>
-  </si>
-  <si>
-    <t>0.7755577</t>
-  </si>
-  <si>
-    <t>0.2227537</t>
-  </si>
-  <si>
-    <t>0.7755541</t>
-  </si>
-  <si>
-    <t>0.2237786</t>
-  </si>
-  <si>
-    <t>0.7757386</t>
-  </si>
-  <si>
-    <t>0.1077895</t>
-  </si>
-  <si>
-    <t>0.8945549</t>
-  </si>
-  <si>
-    <t>0.8947579</t>
-  </si>
-  <si>
-    <t>0.1083020</t>
-  </si>
-  <si>
-    <t>0.8927043</t>
-  </si>
-  <si>
-    <t>0.1074479</t>
-  </si>
-  <si>
-    <t>0.8941024</t>
-  </si>
-  <si>
-    <t>0.1096686</t>
-  </si>
-  <si>
-    <t>0.8923189</t>
-  </si>
-  <si>
-    <t>0.10095661</t>
-  </si>
-  <si>
-    <t>0.10112743</t>
-  </si>
-  <si>
-    <t>0.9126257</t>
-  </si>
-  <si>
-    <t>0.09993167</t>
-  </si>
-  <si>
-    <t>0.9144836</t>
-  </si>
-  <si>
-    <t>0.9145415</t>
-  </si>
-  <si>
-    <t>0.09959002</t>
-  </si>
-  <si>
-    <t>0.9140330</t>
-  </si>
-  <si>
-    <t>0.9140948</t>
-  </si>
-  <si>
-    <t>0.9112741</t>
-  </si>
-  <si>
-    <t>0.9134073</t>
-  </si>
-  <si>
-    <t>0.09873591</t>
-  </si>
-  <si>
-    <t>0.9138996</t>
-  </si>
-  <si>
-    <t>0.10129826</t>
-  </si>
-  <si>
-    <t>0.9130624</t>
-  </si>
-  <si>
-    <t>0.9129163</t>
   </si>
 </sst>
 </file>
@@ -587,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD02A42-AD32-D845-B847-33E6CA93CE32}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,222 +659,442 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -837,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="C41" sqref="A22:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,332 +1126,222 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB5400A-1B09-B541-ADD1-B1E6B9FC7C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4A03A3-A38B-224F-8967-83B8D2F199FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="120">
   <si>
     <t>tasa</t>
   </si>
@@ -278,6 +278,123 @@
   </si>
   <si>
     <t>AVNNET MODELO 2</t>
+  </si>
+  <si>
+    <t>0.10112743</t>
+  </si>
+  <si>
+    <t>0.9126257</t>
+  </si>
+  <si>
+    <t>0.09993167</t>
+  </si>
+  <si>
+    <t>0.9144836</t>
+  </si>
+  <si>
+    <t>0.09890673</t>
+  </si>
+  <si>
+    <t>0.9145415</t>
+  </si>
+  <si>
+    <t>0.09959002</t>
+  </si>
+  <si>
+    <t>0.9140330</t>
+  </si>
+  <si>
+    <t>0.10027332</t>
+  </si>
+  <si>
+    <t>0.9140948</t>
+  </si>
+  <si>
+    <t>0.09941920</t>
+  </si>
+  <si>
+    <t>0.9147203</t>
+  </si>
+  <si>
+    <t>0.10010249</t>
+  </si>
+  <si>
+    <t>0.9145659</t>
+  </si>
+  <si>
+    <t>0.09907755</t>
+  </si>
+  <si>
+    <t>0.9155725</t>
+  </si>
+  <si>
+    <t>0.10095661</t>
+  </si>
+  <si>
+    <t>0.9155204</t>
+  </si>
+  <si>
+    <t>0.9127317</t>
+  </si>
+  <si>
+    <t>BAG. MODELO 2</t>
+  </si>
+  <si>
+    <t>0.10181073</t>
+  </si>
+  <si>
+    <t>0.9124968</t>
+  </si>
+  <si>
+    <t>0.10317731</t>
+  </si>
+  <si>
+    <t>0.9144305</t>
+  </si>
+  <si>
+    <t>0.10078579</t>
+  </si>
+  <si>
+    <t>0.9143850</t>
+  </si>
+  <si>
+    <t>0.9138405</t>
+  </si>
+  <si>
+    <t>0.10198155</t>
+  </si>
+  <si>
+    <t>0.9144000</t>
+  </si>
+  <si>
+    <t>0.10061496</t>
+  </si>
+  <si>
+    <t>0.9151003</t>
+  </si>
+  <si>
+    <t>0.10249402</t>
+  </si>
+  <si>
+    <t>0.9151371</t>
+  </si>
+  <si>
+    <t>0.10163990</t>
+  </si>
+  <si>
+    <t>0.9150177</t>
+  </si>
+  <si>
+    <t>0.10129826</t>
+  </si>
+  <si>
+    <t>0.9149272</t>
+  </si>
+  <si>
+    <t>0.9136212</t>
+  </si>
+  <si>
+    <t>BAG. MODELO 1</t>
   </si>
 </sst>
 </file>
@@ -637,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD02A42-AD32-D845-B847-33E6CA93CE32}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C41"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="C41" sqref="A22:C41"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,6 +1461,446 @@
         <v>40</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4A03A3-A38B-224F-8967-83B8D2F199FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831533A-0ED7-1046-AB58-0C621D521E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
@@ -166,39 +166,6 @@
     <t>0.1067646</t>
   </si>
   <si>
-    <t>0.8960432</t>
-  </si>
-  <si>
-    <t>0.1062521</t>
-  </si>
-  <si>
-    <t>0.8974809</t>
-  </si>
-  <si>
-    <t>0.1055688</t>
-  </si>
-  <si>
-    <t>0.8947908</t>
-  </si>
-  <si>
-    <t>0.1064230</t>
-  </si>
-  <si>
-    <t>0.8982033</t>
-  </si>
-  <si>
-    <t>0.1045439</t>
-  </si>
-  <si>
-    <t>0.8964518</t>
-  </si>
-  <si>
-    <t>0.1065938</t>
-  </si>
-  <si>
-    <t>0.1059105</t>
-  </si>
-  <si>
     <t>0.1088145</t>
   </si>
   <si>
@@ -232,21 +199,6 @@
     <t>0.8941729</t>
   </si>
   <si>
-    <t>0.8965810</t>
-  </si>
-  <si>
-    <t>0.8945043</t>
-  </si>
-  <si>
-    <t>0.8990411</t>
-  </si>
-  <si>
-    <t>0.8969116</t>
-  </si>
-  <si>
-    <t>0.8957565</t>
-  </si>
-  <si>
     <t>0.8957019</t>
   </si>
   <si>
@@ -395,6 +347,54 @@
   </si>
   <si>
     <t>BAG. MODELO 1</t>
+  </si>
+  <si>
+    <t>0.1036898</t>
+  </si>
+  <si>
+    <t>0.8997269</t>
+  </si>
+  <si>
+    <t>0.9018213</t>
+  </si>
+  <si>
+    <t>0.1030065</t>
+  </si>
+  <si>
+    <t>0.8947205</t>
+  </si>
+  <si>
+    <t>0.8999609</t>
+  </si>
+  <si>
+    <t>0.1035190</t>
+  </si>
+  <si>
+    <t>0.8939190</t>
+  </si>
+  <si>
+    <t>0.8983253</t>
+  </si>
+  <si>
+    <t>0.1052272</t>
+  </si>
+  <si>
+    <t>0.8977204</t>
+  </si>
+  <si>
+    <t>0.1050564</t>
+  </si>
+  <si>
+    <t>0.8975757</t>
+  </si>
+  <si>
+    <t>0.8925500</t>
+  </si>
+  <si>
+    <t>0.1084728</t>
+  </si>
+  <si>
+    <t>0.8981985</t>
   </si>
 </sst>
 </file>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD02A42-AD32-D845-B847-33E6CA93CE32}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A13" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,222 +996,222 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,442 +1463,442 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
         <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
         <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831533A-0ED7-1046-AB58-0C621D521E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD291F7-DE50-A34D-A414-190725E80825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="119">
   <si>
     <t>tasa</t>
   </si>
@@ -46,36 +46,6 @@
     <t>modelo</t>
   </si>
   <si>
-    <t>0.2160916</t>
-  </si>
-  <si>
-    <t>0.7546320</t>
-  </si>
-  <si>
-    <t>0.2162624</t>
-  </si>
-  <si>
-    <t>0.7551385</t>
-  </si>
-  <si>
-    <t>0.2172873</t>
-  </si>
-  <si>
-    <t>0.7551411</t>
-  </si>
-  <si>
-    <t>0.2167749</t>
-  </si>
-  <si>
-    <t>0.7545244</t>
-  </si>
-  <si>
-    <t>0.2154083</t>
-  </si>
-  <si>
-    <t>0.7544779</t>
-  </si>
-  <si>
     <t>0.2222412</t>
   </si>
   <si>
@@ -130,271 +100,298 @@
     <t>0.7727600</t>
   </si>
   <si>
-    <t>0.2155791</t>
-  </si>
-  <si>
-    <t>0.7559107</t>
-  </si>
-  <si>
-    <t>0.2171165</t>
-  </si>
-  <si>
-    <t>0.7550804</t>
-  </si>
-  <si>
-    <t>0.7551316</t>
-  </si>
-  <si>
-    <t>0.2164332</t>
-  </si>
-  <si>
-    <t>0.7546825</t>
-  </si>
-  <si>
-    <t>0.7543872</t>
-  </si>
-  <si>
     <t>LOG. MODELO 1</t>
   </si>
   <si>
     <t>LOG. MODELO 2</t>
   </si>
   <si>
-    <t>0.1033481</t>
-  </si>
-  <si>
-    <t>0.1067646</t>
-  </si>
-  <si>
-    <t>0.1088145</t>
-  </si>
-  <si>
-    <t>0.1089853</t>
-  </si>
-  <si>
-    <t>0.8980774</t>
-  </si>
-  <si>
-    <t>0.1141100</t>
-  </si>
-  <si>
-    <t>0.8969203</t>
-  </si>
-  <si>
-    <t>0.1110352</t>
-  </si>
-  <si>
-    <t>0.9028122</t>
-  </si>
-  <si>
-    <t>0.1100102</t>
-  </si>
-  <si>
-    <t>0.8974087</t>
-  </si>
-  <si>
-    <t>0.1117185</t>
-  </si>
-  <si>
-    <t>0.8941729</t>
-  </si>
-  <si>
-    <t>0.8957019</t>
-  </si>
-  <si>
-    <t>0.1105227</t>
-  </si>
-  <si>
-    <t>0.8958447</t>
-  </si>
-  <si>
-    <t>0.1106935</t>
-  </si>
-  <si>
-    <t>0.8996416</t>
-  </si>
-  <si>
-    <t>0.1153058</t>
-  </si>
-  <si>
-    <t>0.8968740</t>
-  </si>
-  <si>
-    <t>0.1118893</t>
-  </si>
-  <si>
-    <t>0.8967188</t>
-  </si>
-  <si>
     <t>AVNNET MODELO 1</t>
   </si>
   <si>
     <t>AVNNET MODELO 2</t>
   </si>
   <si>
-    <t>0.10112743</t>
-  </si>
-  <si>
-    <t>0.9126257</t>
-  </si>
-  <si>
-    <t>0.09993167</t>
-  </si>
-  <si>
-    <t>0.9144836</t>
-  </si>
-  <si>
-    <t>0.09890673</t>
-  </si>
-  <si>
-    <t>0.9145415</t>
-  </si>
-  <si>
-    <t>0.09959002</t>
-  </si>
-  <si>
-    <t>0.9140330</t>
-  </si>
-  <si>
-    <t>0.10027332</t>
-  </si>
-  <si>
-    <t>0.9140948</t>
-  </si>
-  <si>
-    <t>0.09941920</t>
-  </si>
-  <si>
-    <t>0.9147203</t>
-  </si>
-  <si>
-    <t>0.10010249</t>
-  </si>
-  <si>
-    <t>0.9145659</t>
-  </si>
-  <si>
-    <t>0.09907755</t>
-  </si>
-  <si>
-    <t>0.9155725</t>
-  </si>
-  <si>
-    <t>0.10095661</t>
-  </si>
-  <si>
-    <t>0.9155204</t>
-  </si>
-  <si>
-    <t>0.9127317</t>
-  </si>
-  <si>
     <t>BAG. MODELO 2</t>
   </si>
   <si>
-    <t>0.10181073</t>
-  </si>
-  <si>
-    <t>0.9124968</t>
-  </si>
-  <si>
     <t>0.10317731</t>
   </si>
   <si>
-    <t>0.9144305</t>
-  </si>
-  <si>
-    <t>0.10078579</t>
-  </si>
-  <si>
-    <t>0.9143850</t>
-  </si>
-  <si>
-    <t>0.9138405</t>
-  </si>
-  <si>
-    <t>0.10198155</t>
-  </si>
-  <si>
-    <t>0.9144000</t>
-  </si>
-  <si>
-    <t>0.10061496</t>
-  </si>
-  <si>
-    <t>0.9151003</t>
-  </si>
-  <si>
-    <t>0.10249402</t>
-  </si>
-  <si>
-    <t>0.9151371</t>
-  </si>
-  <si>
-    <t>0.10163990</t>
-  </si>
-  <si>
-    <t>0.9150177</t>
-  </si>
-  <si>
-    <t>0.10129826</t>
-  </si>
-  <si>
-    <t>0.9149272</t>
-  </si>
-  <si>
-    <t>0.9136212</t>
-  </si>
-  <si>
     <t>BAG. MODELO 1</t>
   </si>
   <si>
     <t>0.1036898</t>
   </si>
   <si>
-    <t>0.8997269</t>
-  </si>
-  <si>
-    <t>0.9018213</t>
-  </si>
-  <si>
     <t>0.1030065</t>
   </si>
   <si>
-    <t>0.8947205</t>
-  </si>
-  <si>
-    <t>0.8999609</t>
-  </si>
-  <si>
-    <t>0.1035190</t>
-  </si>
-  <si>
-    <t>0.8939190</t>
-  </si>
-  <si>
-    <t>0.8983253</t>
-  </si>
-  <si>
     <t>0.1052272</t>
   </si>
   <si>
-    <t>0.8977204</t>
-  </si>
-  <si>
     <t>0.1050564</t>
   </si>
   <si>
-    <t>0.8975757</t>
-  </si>
-  <si>
-    <t>0.8925500</t>
-  </si>
-  <si>
-    <t>0.1084728</t>
-  </si>
-  <si>
-    <t>0.8981985</t>
+    <t>0.1024940</t>
+  </si>
+  <si>
+    <t>0.2254868</t>
+  </si>
+  <si>
+    <t>0.7545052</t>
+  </si>
+  <si>
+    <t>0.2227537</t>
+  </si>
+  <si>
+    <t>0.7558627</t>
+  </si>
+  <si>
+    <t>0.2244619</t>
+  </si>
+  <si>
+    <t>0.7551898</t>
+  </si>
+  <si>
+    <t>0.7559333</t>
+  </si>
+  <si>
+    <t>0.2229245</t>
+  </si>
+  <si>
+    <t>0.7555890</t>
+  </si>
+  <si>
+    <t>0.7564431</t>
+  </si>
+  <si>
+    <t>0.2237786</t>
+  </si>
+  <si>
+    <t>0.7555813</t>
+  </si>
+  <si>
+    <t>0.7560618</t>
+  </si>
+  <si>
+    <t>0.2236078</t>
+  </si>
+  <si>
+    <t>0.7554724</t>
+  </si>
+  <si>
+    <t>0.2248036</t>
+  </si>
+  <si>
+    <t>0.7557448</t>
+  </si>
+  <si>
+    <t>0.1074479</t>
+  </si>
+  <si>
+    <t>0.8980842</t>
+  </si>
+  <si>
+    <t>0.1071063</t>
+  </si>
+  <si>
+    <t>0.8952967</t>
+  </si>
+  <si>
+    <t>0.1048855</t>
+  </si>
+  <si>
+    <t>0.8952020</t>
+  </si>
+  <si>
+    <t>0.1098394</t>
+  </si>
+  <si>
+    <t>0.8923058</t>
+  </si>
+  <si>
+    <t>0.1053980</t>
+  </si>
+  <si>
+    <t>0.8895272</t>
+  </si>
+  <si>
+    <t>0.1057397</t>
+  </si>
+  <si>
+    <t>0.8964393</t>
+  </si>
+  <si>
+    <t>0.1069354</t>
+  </si>
+  <si>
+    <t>0.8971384</t>
+  </si>
+  <si>
+    <t>0.1083020</t>
+  </si>
+  <si>
+    <t>0.8939654</t>
+  </si>
+  <si>
+    <t>0.8948049</t>
+  </si>
+  <si>
+    <t>0.1122310</t>
+  </si>
+  <si>
+    <t>0.8905925</t>
+  </si>
+  <si>
+    <t>0.1064230</t>
+  </si>
+  <si>
+    <t>0.8854166</t>
+  </si>
+  <si>
+    <t>0.8856631</t>
+  </si>
+  <si>
+    <t>0.1028357</t>
+  </si>
+  <si>
+    <t>0.8848674</t>
+  </si>
+  <si>
+    <t>0.8863094</t>
+  </si>
+  <si>
+    <t>0.1038606</t>
+  </si>
+  <si>
+    <t>0.8829671</t>
+  </si>
+  <si>
+    <t>0.8875253</t>
+  </si>
+  <si>
+    <t>0.1065938</t>
+  </si>
+  <si>
+    <t>0.8821551</t>
+  </si>
+  <si>
+    <t>0.8882676</t>
+  </si>
+  <si>
+    <t>0.8869712</t>
+  </si>
+  <si>
+    <t>0.8879191</t>
+  </si>
+  <si>
+    <t>0.10830202</t>
+  </si>
+  <si>
+    <t>0.9124821</t>
+  </si>
+  <si>
+    <t>0.10573967</t>
+  </si>
+  <si>
+    <t>0.9148245</t>
+  </si>
+  <si>
+    <t>0.10454390</t>
+  </si>
+  <si>
+    <t>0.9146726</t>
+  </si>
+  <si>
+    <t>0.10796037</t>
+  </si>
+  <si>
+    <t>0.9132757</t>
+  </si>
+  <si>
+    <t>0.10522720</t>
+  </si>
+  <si>
+    <t>0.9127031</t>
+  </si>
+  <si>
+    <t>0.9142132</t>
+  </si>
+  <si>
+    <t>0.10676461</t>
+  </si>
+  <si>
+    <t>0.9138763</t>
+  </si>
+  <si>
+    <t>0.10625214</t>
+  </si>
+  <si>
+    <t>0.9145978</t>
+  </si>
+  <si>
+    <t>0.10659378</t>
+  </si>
+  <si>
+    <t>0.9138904</t>
+  </si>
+  <si>
+    <t>0.10642296</t>
+  </si>
+  <si>
+    <t>0.9138174</t>
+  </si>
+  <si>
+    <t>0.10608131</t>
+  </si>
+  <si>
+    <t>0.9038205</t>
+  </si>
+  <si>
+    <t>0.9059547</t>
+  </si>
+  <si>
+    <t>0.9053673</t>
+  </si>
+  <si>
+    <t>0.10813119</t>
+  </si>
+  <si>
+    <t>0.9038757</t>
+  </si>
+  <si>
+    <t>0.9050232</t>
+  </si>
+  <si>
+    <t>0.10437308</t>
+  </si>
+  <si>
+    <t>0.9055370</t>
+  </si>
+  <si>
+    <t>0.10403143</t>
+  </si>
+  <si>
+    <t>0.9057737</t>
+  </si>
+  <si>
+    <t>0.10386061</t>
+  </si>
+  <si>
+    <t>0.9057217</t>
+  </si>
+  <si>
+    <t>0.10471472</t>
+  </si>
+  <si>
+    <t>0.9050954</t>
+  </si>
+  <si>
+    <t>0.10539802</t>
+  </si>
+  <si>
+    <t>0.9057504</t>
   </si>
 </sst>
 </file>
@@ -754,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD02A42-AD32-D845-B847-33E6CA93CE32}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C41"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,442 +773,442 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1224,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,662 +1240,662 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD291F7-DE50-A34D-A414-190725E80825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5711DF70-C315-F04A-94F2-B96EE5B4EB9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="2" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
     <sheet name="bagging" sheetId="2" r:id="rId2"/>
+    <sheet name="random_forest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="153">
   <si>
     <t>tasa</t>
   </si>
@@ -115,9 +116,6 @@
     <t>BAG. MODELO 2</t>
   </si>
   <si>
-    <t>0.10317731</t>
-  </si>
-  <si>
     <t>BAG. MODELO 1</t>
   </si>
   <si>
@@ -286,119 +284,224 @@
     <t>0.8879191</t>
   </si>
   <si>
-    <t>0.10830202</t>
-  </si>
-  <si>
-    <t>0.9124821</t>
+    <t>0.10454390</t>
+  </si>
+  <si>
+    <t>0.10522720</t>
+  </si>
+  <si>
+    <t>0.10659378</t>
+  </si>
+  <si>
+    <t>RF. MODELO 1</t>
+  </si>
+  <si>
+    <t>0.10591049</t>
+  </si>
+  <si>
+    <t>RF. MODELO 2</t>
+  </si>
+  <si>
+    <t>0.10215237</t>
+  </si>
+  <si>
+    <t>0.10078579</t>
+  </si>
+  <si>
+    <t>0.10181073</t>
+  </si>
+  <si>
+    <t>0.10027332</t>
+  </si>
+  <si>
+    <t>0.09993167</t>
+  </si>
+  <si>
+    <t>0.10061496</t>
+  </si>
+  <si>
+    <t>0.10129826</t>
+  </si>
+  <si>
+    <t>0.10163990</t>
+  </si>
+  <si>
+    <t>0.10112743</t>
+  </si>
+  <si>
+    <t>0.9031137</t>
+  </si>
+  <si>
+    <t>0.10283567</t>
+  </si>
+  <si>
+    <t>0.9047731</t>
+  </si>
+  <si>
+    <t>0.9045251</t>
+  </si>
+  <si>
+    <t>0.9049966</t>
+  </si>
+  <si>
+    <t>0.9045735</t>
+  </si>
+  <si>
+    <t>0.10198155</t>
+  </si>
+  <si>
+    <t>0.9051515</t>
+  </si>
+  <si>
+    <t>0.9049999</t>
+  </si>
+  <si>
+    <t>0.9058942</t>
+  </si>
+  <si>
+    <t>0.9069242</t>
+  </si>
+  <si>
+    <t>0.9043745</t>
+  </si>
+  <si>
+    <t>0.9125512</t>
+  </si>
+  <si>
+    <t>0.9144808</t>
+  </si>
+  <si>
+    <t>0.9146701</t>
+  </si>
+  <si>
+    <t>0.9141422</t>
+  </si>
+  <si>
+    <t>0.9142923</t>
+  </si>
+  <si>
+    <t>0.9149038</t>
+  </si>
+  <si>
+    <t>0.10232320</t>
+  </si>
+  <si>
+    <t>0.9150995</t>
+  </si>
+  <si>
+    <t>0.9150332</t>
+  </si>
+  <si>
+    <t>0.9150318</t>
+  </si>
+  <si>
+    <t>0.9136061</t>
+  </si>
+  <si>
+    <t>0.10403143</t>
+  </si>
+  <si>
+    <t>0.10761872</t>
+  </si>
+  <si>
+    <t>0.9134406</t>
+  </si>
+  <si>
+    <t>0.10796037</t>
+  </si>
+  <si>
+    <t>0.9150258</t>
+  </si>
+  <si>
+    <t>0.10727708</t>
+  </si>
+  <si>
+    <t>0.9142720</t>
+  </si>
+  <si>
+    <t>0.9149173</t>
+  </si>
+  <si>
+    <t>0.10744790</t>
+  </si>
+  <si>
+    <t>0.9140457</t>
+  </si>
+  <si>
+    <t>0.9139981</t>
+  </si>
+  <si>
+    <t>0.9149645</t>
+  </si>
+  <si>
+    <t>0.9148137</t>
+  </si>
+  <si>
+    <t>0.10642296</t>
+  </si>
+  <si>
+    <t>0.9149001</t>
+  </si>
+  <si>
+    <t>0.10915613</t>
+  </si>
+  <si>
+    <t>0.9137677</t>
+  </si>
+  <si>
+    <t>0.10898531</t>
+  </si>
+  <si>
+    <t>0.9016746</t>
+  </si>
+  <si>
+    <t>0.9038273</t>
+  </si>
+  <si>
+    <t>0.9040292</t>
+  </si>
+  <si>
+    <t>0.10932696</t>
+  </si>
+  <si>
+    <t>0.9036264</t>
+  </si>
+  <si>
+    <t>0.10693543</t>
+  </si>
+  <si>
+    <t>0.9039946</t>
+  </si>
+  <si>
+    <t>0.10676461</t>
+  </si>
+  <si>
+    <t>0.9041767</t>
+  </si>
+  <si>
+    <t>0.10437308</t>
+  </si>
+  <si>
+    <t>0.9037996</t>
+  </si>
+  <si>
+    <t>0.9042967</t>
+  </si>
+  <si>
+    <t>0.9037429</t>
   </si>
   <si>
     <t>0.10573967</t>
   </si>
   <si>
-    <t>0.9148245</t>
-  </si>
-  <si>
-    <t>0.10454390</t>
-  </si>
-  <si>
-    <t>0.9146726</t>
-  </si>
-  <si>
-    <t>0.10796037</t>
-  </si>
-  <si>
-    <t>0.9132757</t>
-  </si>
-  <si>
-    <t>0.10522720</t>
-  </si>
-  <si>
-    <t>0.9127031</t>
-  </si>
-  <si>
-    <t>0.9142132</t>
-  </si>
-  <si>
-    <t>0.10676461</t>
-  </si>
-  <si>
-    <t>0.9138763</t>
-  </si>
-  <si>
-    <t>0.10625214</t>
-  </si>
-  <si>
-    <t>0.9145978</t>
-  </si>
-  <si>
-    <t>0.10659378</t>
-  </si>
-  <si>
-    <t>0.9138904</t>
-  </si>
-  <si>
-    <t>0.10642296</t>
-  </si>
-  <si>
-    <t>0.9138174</t>
-  </si>
-  <si>
-    <t>0.10608131</t>
-  </si>
-  <si>
-    <t>0.9038205</t>
-  </si>
-  <si>
-    <t>0.9059547</t>
-  </si>
-  <si>
-    <t>0.9053673</t>
-  </si>
-  <si>
-    <t>0.10813119</t>
-  </si>
-  <si>
-    <t>0.9038757</t>
-  </si>
-  <si>
-    <t>0.9050232</t>
-  </si>
-  <si>
-    <t>0.10437308</t>
-  </si>
-  <si>
-    <t>0.9055370</t>
-  </si>
-  <si>
-    <t>0.10403143</t>
-  </si>
-  <si>
-    <t>0.9057737</t>
-  </si>
-  <si>
-    <t>0.10386061</t>
-  </si>
-  <si>
-    <t>0.9057217</t>
-  </si>
-  <si>
-    <t>0.10471472</t>
-  </si>
-  <si>
-    <t>0.9050954</t>
-  </si>
-  <si>
-    <t>0.10539802</t>
-  </si>
-  <si>
-    <t>0.9057504</t>
+    <t>0.9044239</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,6 +511,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,8 +543,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,10 +994,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -894,10 +1005,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -905,10 +1016,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -916,10 +1027,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -927,10 +1038,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -938,10 +1049,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -949,10 +1060,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -963,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -971,10 +1082,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -982,10 +1093,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -993,10 +1104,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1004,10 +1115,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1015,10 +1126,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -1026,10 +1137,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -1037,10 +1148,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1048,10 +1159,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1059,10 +1170,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1070,10 +1181,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1081,10 +1192,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1092,10 +1203,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1103,10 +1214,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1114,10 +1225,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
@@ -1125,10 +1236,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -1136,10 +1247,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1147,10 +1258,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1158,10 +1269,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -1169,10 +1280,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1180,10 +1291,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -1191,10 +1302,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
@@ -1202,10 +1313,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
@@ -1221,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C725FB-0259-044F-8EEE-299F54C2EEBC}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A32" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,10 +1461,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1361,10 +1472,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1372,10 +1483,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1383,10 +1494,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1394,10 +1505,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1405,10 +1516,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1416,10 +1527,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1430,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1438,10 +1549,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1449,10 +1560,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1460,10 +1571,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1471,10 +1582,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1482,10 +1593,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -1493,10 +1604,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -1504,10 +1615,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1515,10 +1626,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1526,10 +1637,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1537,10 +1648,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1548,10 +1659,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1559,10 +1670,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1570,10 +1681,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1581,10 +1692,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
@@ -1592,10 +1703,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -1603,10 +1714,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1614,10 +1725,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1625,10 +1736,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -1636,10 +1747,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1647,10 +1758,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -1658,10 +1769,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
@@ -1669,10 +1780,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
@@ -1680,120 +1791,120 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -1801,10 +1912,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -1812,10 +1923,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
         <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -1823,10 +1934,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
@@ -1834,10 +1945,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
@@ -1845,10 +1956,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -1856,10 +1967,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
@@ -1867,10 +1978,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -1878,10 +1989,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
@@ -1889,13 +2000,920 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE70A919-51A8-384A-AAAE-82A240E9E1DE}">
+  <dimension ref="A1:C81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5711DF70-C315-F04A-94F2-B96EE5B4EB9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAC5E62-EFD8-6D4A-B9CE-FEB4813F3A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="2" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="4" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
     <sheet name="bagging" sheetId="2" r:id="rId2"/>
     <sheet name="random_forest" sheetId="3" r:id="rId3"/>
+    <sheet name="gradient_boosting" sheetId="4" r:id="rId4"/>
+    <sheet name="svm" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="286">
   <si>
     <t>tasa</t>
   </si>
@@ -495,6 +497,405 @@
   </si>
   <si>
     <t>0.9044239</t>
+  </si>
+  <si>
+    <t>0.9025199</t>
+  </si>
+  <si>
+    <t>0.09941920</t>
+  </si>
+  <si>
+    <t>0.9049580</t>
+  </si>
+  <si>
+    <t>0.9020530</t>
+  </si>
+  <si>
+    <t>0.9027878</t>
+  </si>
+  <si>
+    <t>0.09976085</t>
+  </si>
+  <si>
+    <t>0.9045994</t>
+  </si>
+  <si>
+    <t>0.9051924</t>
+  </si>
+  <si>
+    <t>0.9038353</t>
+  </si>
+  <si>
+    <t>0.10044414</t>
+  </si>
+  <si>
+    <t>0.9062704</t>
+  </si>
+  <si>
+    <t>0.9046582</t>
+  </si>
+  <si>
+    <t>0.9037128</t>
+  </si>
+  <si>
+    <t>GBM MODELO 1</t>
+  </si>
+  <si>
+    <t>GBM MODELO 2</t>
+  </si>
+  <si>
+    <t>0.8944234</t>
+  </si>
+  <si>
+    <t>0.8958980</t>
+  </si>
+  <si>
+    <t>0.10146908</t>
+  </si>
+  <si>
+    <t>0.8920757</t>
+  </si>
+  <si>
+    <t>0.09873591</t>
+  </si>
+  <si>
+    <t>0.8940834</t>
+  </si>
+  <si>
+    <t>0.8967564</t>
+  </si>
+  <si>
+    <t>0.8941785</t>
+  </si>
+  <si>
+    <t>0.8917502</t>
+  </si>
+  <si>
+    <t>0.8972732</t>
+  </si>
+  <si>
+    <t>0.8927831</t>
+  </si>
+  <si>
+    <t>0.09890673</t>
+  </si>
+  <si>
+    <t>0.8929564</t>
+  </si>
+  <si>
+    <t>0.7325771</t>
+  </si>
+  <si>
+    <t>0.2266826</t>
+  </si>
+  <si>
+    <t>0.7334899</t>
+  </si>
+  <si>
+    <t>0.2256577</t>
+  </si>
+  <si>
+    <t>0.7322037</t>
+  </si>
+  <si>
+    <t>0.2259993</t>
+  </si>
+  <si>
+    <t>0.7324154</t>
+  </si>
+  <si>
+    <t>0.2261701</t>
+  </si>
+  <si>
+    <t>0.7305755</t>
+  </si>
+  <si>
+    <t>0.7337798</t>
+  </si>
+  <si>
+    <t>0.2230953</t>
+  </si>
+  <si>
+    <t>0.7338985</t>
+  </si>
+  <si>
+    <t>0.7340012</t>
+  </si>
+  <si>
+    <t>0.7320045</t>
+  </si>
+  <si>
+    <t>0.2258285</t>
+  </si>
+  <si>
+    <t>0.7331489</t>
+  </si>
+  <si>
+    <t>SVM LIN MODELO 1</t>
+  </si>
+  <si>
+    <t>SVM LIN MODELO 2</t>
+  </si>
+  <si>
+    <t>0.2567475</t>
+  </si>
+  <si>
+    <t>0.4852608</t>
+  </si>
+  <si>
+    <t>0.2523061</t>
+  </si>
+  <si>
+    <t>0.6331977</t>
+  </si>
+  <si>
+    <t>0.2541852</t>
+  </si>
+  <si>
+    <t>0.6307943</t>
+  </si>
+  <si>
+    <t>0.2514520</t>
+  </si>
+  <si>
+    <t>0.6637131</t>
+  </si>
+  <si>
+    <t>0.2533311</t>
+  </si>
+  <si>
+    <t>0.5683333</t>
+  </si>
+  <si>
+    <t>0.2535019</t>
+  </si>
+  <si>
+    <t>0.5944128</t>
+  </si>
+  <si>
+    <t>0.2552101</t>
+  </si>
+  <si>
+    <t>0.5873892</t>
+  </si>
+  <si>
+    <t>0.2512812</t>
+  </si>
+  <si>
+    <t>0.5756673</t>
+  </si>
+  <si>
+    <t>0.6268734</t>
+  </si>
+  <si>
+    <t>0.5389630</t>
+  </si>
+  <si>
+    <t>0.2242911</t>
+  </si>
+  <si>
+    <t>0.7012111</t>
+  </si>
+  <si>
+    <t>0.7011884</t>
+  </si>
+  <si>
+    <t>0.7005636</t>
+  </si>
+  <si>
+    <t>0.2241203</t>
+  </si>
+  <si>
+    <t>0.7010056</t>
+  </si>
+  <si>
+    <t>0.2239494</t>
+  </si>
+  <si>
+    <t>0.7005606</t>
+  </si>
+  <si>
+    <t>0.7017963</t>
+  </si>
+  <si>
+    <t>0.7014294</t>
+  </si>
+  <si>
+    <t>0.7016324</t>
+  </si>
+  <si>
+    <t>0.7023512</t>
+  </si>
+  <si>
+    <t>0.2285796</t>
+  </si>
+  <si>
+    <t>0.6944464</t>
+  </si>
+  <si>
+    <t>SVM POLY MODELO 1</t>
+  </si>
+  <si>
+    <t>SVM POLY MODELO 2</t>
+  </si>
+  <si>
+    <t>0.6922883</t>
+  </si>
+  <si>
+    <t>0.6909633</t>
+  </si>
+  <si>
+    <t>0.2225828</t>
+  </si>
+  <si>
+    <t>0.6916872</t>
+  </si>
+  <si>
+    <t>0.2220704</t>
+  </si>
+  <si>
+    <t>0.6930832</t>
+  </si>
+  <si>
+    <t>0.2232661</t>
+  </si>
+  <si>
+    <t>0.6909445</t>
+  </si>
+  <si>
+    <t>0.6919978</t>
+  </si>
+  <si>
+    <t>0.6916930</t>
+  </si>
+  <si>
+    <t>0.2224120</t>
+  </si>
+  <si>
+    <t>0.6928125</t>
+  </si>
+  <si>
+    <t>0.6891807</t>
+  </si>
+  <si>
+    <t>0.6922340</t>
+  </si>
+  <si>
+    <t>0.1604031</t>
+  </si>
+  <si>
+    <t>0.8492403</t>
+  </si>
+  <si>
+    <t>0.1522036</t>
+  </si>
+  <si>
+    <t>0.8464880</t>
+  </si>
+  <si>
+    <t>0.1566450</t>
+  </si>
+  <si>
+    <t>0.8505205</t>
+  </si>
+  <si>
+    <t>0.8464257</t>
+  </si>
+  <si>
+    <t>0.1595490</t>
+  </si>
+  <si>
+    <t>0.8420095</t>
+  </si>
+  <si>
+    <t>0.1564742</t>
+  </si>
+  <si>
+    <t>0.8449656</t>
+  </si>
+  <si>
+    <t>0.1557909</t>
+  </si>
+  <si>
+    <t>0.8468634</t>
+  </si>
+  <si>
+    <t>0.1559617</t>
+  </si>
+  <si>
+    <t>0.8445934</t>
+  </si>
+  <si>
+    <t>0.1581824</t>
+  </si>
+  <si>
+    <t>0.8483760</t>
+  </si>
+  <si>
+    <t>0.8444371</t>
+  </si>
+  <si>
+    <t>SVM RBF MODELO 1</t>
+  </si>
+  <si>
+    <t>SVM RBF MODELO 2</t>
+  </si>
+  <si>
+    <t>0.1262385</t>
+  </si>
+  <si>
+    <t>0.8448844</t>
+  </si>
+  <si>
+    <t>0.1291425</t>
+  </si>
+  <si>
+    <t>0.8468253</t>
+  </si>
+  <si>
+    <t>0.1272634</t>
+  </si>
+  <si>
+    <t>0.8487011</t>
+  </si>
+  <si>
+    <t>0.1301674</t>
+  </si>
+  <si>
+    <t>0.8423715</t>
+  </si>
+  <si>
+    <t>0.1250427</t>
+  </si>
+  <si>
+    <t>0.8428633</t>
+  </si>
+  <si>
+    <t>0.1252135</t>
+  </si>
+  <si>
+    <t>0.8478208</t>
+  </si>
+  <si>
+    <t>0.1253844</t>
+  </si>
+  <si>
+    <t>0.8467597</t>
+  </si>
+  <si>
+    <t>0.1288008</t>
+  </si>
+  <si>
+    <t>0.8404545</t>
+  </si>
+  <si>
+    <t>0.1281175</t>
+  </si>
+  <si>
+    <t>0.8425200</t>
+  </si>
+  <si>
+    <t>0.8447316</t>
   </si>
 </sst>
 </file>
@@ -2019,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE70A919-51A8-384A-AAAE-82A240E9E1DE}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C81" sqref="A1:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2920,4 +3321,2918 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CA36C-24B4-CD40-A998-E3F158BA2CB1}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C101" sqref="A1:C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B7BB46-FE0F-BC49-87F5-3B28DE990E30}">
+  <dimension ref="A1:C161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" t="s">
+        <v>218</v>
+      </c>
+      <c r="C122" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>237</v>
+      </c>
+      <c r="B135" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" t="s">
+        <v>244</v>
+      </c>
+      <c r="C139" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>247</v>
+      </c>
+      <c r="B142" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" t="s">
+        <v>250</v>
+      </c>
+      <c r="C143" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
+      <c r="B144" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>254</v>
+      </c>
+      <c r="B146" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>258</v>
+      </c>
+      <c r="B148" t="s">
+        <v>259</v>
+      </c>
+      <c r="C148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>260</v>
+      </c>
+      <c r="B149" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" t="s">
+        <v>263</v>
+      </c>
+      <c r="C150" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>256</v>
+      </c>
+      <c r="B151" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>267</v>
+      </c>
+      <c r="B152" t="s">
+        <v>268</v>
+      </c>
+      <c r="C152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>275</v>
+      </c>
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" t="s">
+        <v>278</v>
+      </c>
+      <c r="C157" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>279</v>
+      </c>
+      <c r="B158" t="s">
+        <v>280</v>
+      </c>
+      <c r="C158" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" t="s">
+        <v>282</v>
+      </c>
+      <c r="C159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>283</v>
+      </c>
+      <c r="B160" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" t="s">
+        <v>285</v>
+      </c>
+      <c r="C161" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAC5E62-EFD8-6D4A-B9CE-FEB4813F3A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098CAF6-417F-AE4C-971F-985E091A2B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="4" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="9980" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="random_forest" sheetId="3" r:id="rId3"/>
     <sheet name="gradient_boosting" sheetId="4" r:id="rId4"/>
     <sheet name="svm" sheetId="5" r:id="rId5"/>
+    <sheet name="xgboost" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="322">
   <si>
     <t>tasa</t>
   </si>
@@ -499,90 +500,24 @@
     <t>0.9044239</t>
   </si>
   <si>
-    <t>0.9025199</t>
-  </si>
-  <si>
-    <t>0.09941920</t>
-  </si>
-  <si>
-    <t>0.9049580</t>
-  </si>
-  <si>
-    <t>0.9020530</t>
-  </si>
-  <si>
-    <t>0.9027878</t>
-  </si>
-  <si>
     <t>0.09976085</t>
   </si>
   <si>
-    <t>0.9045994</t>
-  </si>
-  <si>
-    <t>0.9051924</t>
-  </si>
-  <si>
-    <t>0.9038353</t>
-  </si>
-  <si>
-    <t>0.10044414</t>
-  </si>
-  <si>
-    <t>0.9062704</t>
-  </si>
-  <si>
-    <t>0.9046582</t>
-  </si>
-  <si>
-    <t>0.9037128</t>
-  </si>
-  <si>
     <t>GBM MODELO 1</t>
   </si>
   <si>
     <t>GBM MODELO 2</t>
   </si>
   <si>
-    <t>0.8944234</t>
-  </si>
-  <si>
-    <t>0.8958980</t>
-  </si>
-  <si>
     <t>0.10146908</t>
   </si>
   <si>
-    <t>0.8920757</t>
-  </si>
-  <si>
     <t>0.09873591</t>
   </si>
   <si>
-    <t>0.8940834</t>
-  </si>
-  <si>
-    <t>0.8967564</t>
-  </si>
-  <si>
-    <t>0.8941785</t>
-  </si>
-  <si>
-    <t>0.8917502</t>
-  </si>
-  <si>
-    <t>0.8972732</t>
-  </si>
-  <si>
-    <t>0.8927831</t>
-  </si>
-  <si>
     <t>0.09890673</t>
   </si>
   <si>
-    <t>0.8929564</t>
-  </si>
-  <si>
     <t>0.7325771</t>
   </si>
   <si>
@@ -896,6 +831,180 @@
   </si>
   <si>
     <t>0.8447316</t>
+  </si>
+  <si>
+    <t>0.9039285</t>
+  </si>
+  <si>
+    <t>0.9068804</t>
+  </si>
+  <si>
+    <t>0.10420225</t>
+  </si>
+  <si>
+    <t>0.9024707</t>
+  </si>
+  <si>
+    <t>0.9050317</t>
+  </si>
+  <si>
+    <t>0.10095661</t>
+  </si>
+  <si>
+    <t>0.9046956</t>
+  </si>
+  <si>
+    <t>0.9046186</t>
+  </si>
+  <si>
+    <t>0.09959002</t>
+  </si>
+  <si>
+    <t>0.9021912</t>
+  </si>
+  <si>
+    <t>0.9058705</t>
+  </si>
+  <si>
+    <t>0.9031996</t>
+  </si>
+  <si>
+    <t>0.9041620</t>
+  </si>
+  <si>
+    <t>0.8940250</t>
+  </si>
+  <si>
+    <t>0.10300649</t>
+  </si>
+  <si>
+    <t>0.8956063</t>
+  </si>
+  <si>
+    <t>0.8939376</t>
+  </si>
+  <si>
+    <t>0.8950554</t>
+  </si>
+  <si>
+    <t>0.8961630</t>
+  </si>
+  <si>
+    <t>0.8965639</t>
+  </si>
+  <si>
+    <t>0.8937406</t>
+  </si>
+  <si>
+    <t>0.8984657</t>
+  </si>
+  <si>
+    <t>0.8962817</t>
+  </si>
+  <si>
+    <t>0.8946102</t>
+  </si>
+  <si>
+    <t>XGBOOST MODELO 1</t>
+  </si>
+  <si>
+    <t>XGBOOST MODELO 2</t>
+  </si>
+  <si>
+    <t>0.10966860</t>
+  </si>
+  <si>
+    <t>0.9074762</t>
+  </si>
+  <si>
+    <t>0.11018107</t>
+  </si>
+  <si>
+    <t>0.9080946</t>
+  </si>
+  <si>
+    <t>0.9102036</t>
+  </si>
+  <si>
+    <t>0.9078077</t>
+  </si>
+  <si>
+    <t>0.11137684</t>
+  </si>
+  <si>
+    <t>0.9087181</t>
+  </si>
+  <si>
+    <t>0.10864366</t>
+  </si>
+  <si>
+    <t>0.9096663</t>
+  </si>
+  <si>
+    <t>0.9093636</t>
+  </si>
+  <si>
+    <t>0.9104525</t>
+  </si>
+  <si>
+    <t>0.9088248</t>
+  </si>
+  <si>
+    <t>0.10881449</t>
+  </si>
+  <si>
+    <t>0.9072470</t>
+  </si>
+  <si>
+    <t>0.1130851</t>
+  </si>
+  <si>
+    <t>0.8985175</t>
+  </si>
+  <si>
+    <t>0.1134267</t>
+  </si>
+  <si>
+    <t>0.8981329</t>
+  </si>
+  <si>
+    <t>0.1132559</t>
+  </si>
+  <si>
+    <t>0.8992223</t>
+  </si>
+  <si>
+    <t>0.8980797</t>
+  </si>
+  <si>
+    <t>0.1115477</t>
+  </si>
+  <si>
+    <t>0.9001156</t>
+  </si>
+  <si>
+    <t>0.1166724</t>
+  </si>
+  <si>
+    <t>0.8986853</t>
+  </si>
+  <si>
+    <t>0.1124018</t>
+  </si>
+  <si>
+    <t>0.9008901</t>
+  </si>
+  <si>
+    <t>0.8987851</t>
+  </si>
+  <si>
+    <t>0.1141100</t>
+  </si>
+  <si>
+    <t>0.9001089</t>
+  </si>
+  <si>
+    <t>0.9000483</t>
   </si>
 </sst>
 </file>
@@ -3327,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CA36C-24B4-CD40-A998-E3F158BA2CB1}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C101" sqref="A1:C101"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4226,222 +4335,222 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
         <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="C100" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4454,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B7BB46-FE0F-BC49-87F5-3B28DE990E30}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A104" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,222 +5462,222 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
         <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="C100" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -5576,54 +5685,54 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -5631,175 +5740,175 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C114" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -5807,10 +5916,10 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C123" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -5818,32 +5927,32 @@
         <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C124" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -5851,10 +5960,10 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -5862,10 +5971,10 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -5873,10 +5982,10 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -5884,21 +5993,21 @@
         <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C131" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -5906,10 +6015,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -5917,43 +6026,43 @@
         <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -5961,10 +6070,10 @@
         <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C137" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -5972,32 +6081,32 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C138" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C139" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -6005,230 +6114,2237 @@
         <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C141" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B142" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C142" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B144" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B145" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B146" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C147" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C148" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C149" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C151" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C155" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C158" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B159" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C160" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>257</v>
+      </c>
+      <c r="B161" t="s">
+        <v>263</v>
+      </c>
+      <c r="C161" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5D001-6A79-E343-8C9E-36C8C0394D2C}">
+  <dimension ref="A1:C181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" t="s">
         <v>279</v>
       </c>
+      <c r="C93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" t="s">
+        <v>287</v>
+      </c>
+      <c r="C101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>191</v>
+      </c>
+      <c r="B119" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>199</v>
+      </c>
+      <c r="B125" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>213</v>
+      </c>
+      <c r="B134" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>217</v>
+      </c>
+      <c r="B136" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>225</v>
+      </c>
+      <c r="B142" t="s">
+        <v>226</v>
+      </c>
+      <c r="C142" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" t="s">
+        <v>228</v>
+      </c>
+      <c r="C143" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" t="s">
+        <v>235</v>
+      </c>
+      <c r="C147" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>236</v>
+      </c>
+      <c r="B148" t="s">
+        <v>237</v>
+      </c>
+      <c r="C148" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>238</v>
+      </c>
+      <c r="B149" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>240</v>
+      </c>
+      <c r="B150" t="s">
+        <v>241</v>
+      </c>
+      <c r="C150" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" t="s">
+        <v>242</v>
+      </c>
+      <c r="C151" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>245</v>
+      </c>
+      <c r="B152" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>247</v>
+      </c>
+      <c r="B153" t="s">
+        <v>248</v>
+      </c>
+      <c r="C153" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>249</v>
+      </c>
+      <c r="B154" t="s">
+        <v>250</v>
+      </c>
+      <c r="C154" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155" t="s">
+        <v>252</v>
+      </c>
+      <c r="C155" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" t="s">
+        <v>254</v>
+      </c>
+      <c r="C156" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>256</v>
+      </c>
+      <c r="C157" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" t="s">
+        <v>258</v>
+      </c>
+      <c r="C158" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" t="s">
+        <v>260</v>
+      </c>
+      <c r="C159" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" t="s">
+        <v>262</v>
+      </c>
+      <c r="C160" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>257</v>
+      </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C161" t="s">
-        <v>266</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>290</v>
+      </c>
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>290</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" t="s">
+        <v>295</v>
+      </c>
+      <c r="C165" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>296</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>298</v>
+      </c>
+      <c r="B167" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" t="s">
+        <v>300</v>
+      </c>
+      <c r="C168" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" t="s">
+        <v>301</v>
+      </c>
+      <c r="C169" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" t="s">
+        <v>302</v>
+      </c>
+      <c r="C170" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>303</v>
+      </c>
+      <c r="B171" t="s">
+        <v>304</v>
+      </c>
+      <c r="C171" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>305</v>
+      </c>
+      <c r="B172" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>307</v>
+      </c>
+      <c r="B173" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>309</v>
+      </c>
+      <c r="B174" t="s">
+        <v>310</v>
+      </c>
+      <c r="C174" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>305</v>
+      </c>
+      <c r="B175" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" t="s">
+        <v>313</v>
+      </c>
+      <c r="C176" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177" t="s">
+        <v>315</v>
+      </c>
+      <c r="C177" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>316</v>
+      </c>
+      <c r="B178" t="s">
+        <v>317</v>
+      </c>
+      <c r="C178" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>307</v>
+      </c>
+      <c r="B179" t="s">
+        <v>318</v>
+      </c>
+      <c r="C179" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>319</v>
+      </c>
+      <c r="B180" t="s">
+        <v>320</v>
+      </c>
+      <c r="C180" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098CAF6-417F-AE4C-971F-985E091A2B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E343868-3A36-9D4E-B13D-5BD3BA1E55D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="-760" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="6" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="gradient_boosting" sheetId="4" r:id="rId4"/>
     <sheet name="svm" sheetId="5" r:id="rId5"/>
     <sheet name="xgboost" sheetId="6" r:id="rId6"/>
+    <sheet name="ensamblado" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="451">
   <si>
     <t>tasa</t>
   </si>
@@ -1005,6 +1006,393 @@
   </si>
   <si>
     <t>0.9000483</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>0.22548685</t>
+  </si>
+  <si>
+    <t>logi</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>0.22275367</t>
+  </si>
+  <si>
+    <t>0.22446191</t>
+  </si>
+  <si>
+    <t>0.22292450</t>
+  </si>
+  <si>
+    <t>0.22377861</t>
+  </si>
+  <si>
+    <t>0.22343697</t>
+  </si>
+  <si>
+    <t>0.22360779</t>
+  </si>
+  <si>
+    <t>0.22480355</t>
+  </si>
+  <si>
+    <t>avnnet</t>
+  </si>
+  <si>
+    <t>0.10249402</t>
+  </si>
+  <si>
+    <t>0.10386061</t>
+  </si>
+  <si>
+    <t>0.10505637</t>
+  </si>
+  <si>
+    <t>0.10488555</t>
+  </si>
+  <si>
+    <t>bagging</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>0.9028924</t>
+  </si>
+  <si>
+    <t>0.9052904</t>
+  </si>
+  <si>
+    <t>0.9045234</t>
+  </si>
+  <si>
+    <t>0.9052206</t>
+  </si>
+  <si>
+    <t>0.9050767</t>
+  </si>
+  <si>
+    <t>0.9058394</t>
+  </si>
+  <si>
+    <t>0.9051245</t>
+  </si>
+  <si>
+    <t>0.9058201</t>
+  </si>
+  <si>
+    <t>0.09839426</t>
+  </si>
+  <si>
+    <t>0.9068729</t>
+  </si>
+  <si>
+    <t>0.09907755</t>
+  </si>
+  <si>
+    <t>0.9040658</t>
+  </si>
+  <si>
+    <t>gbm</t>
+  </si>
+  <si>
+    <t>0.11308507</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>0.11342672</t>
+  </si>
+  <si>
+    <t>0.11325589</t>
+  </si>
+  <si>
+    <t>0.11154766</t>
+  </si>
+  <si>
+    <t>0.11667236</t>
+  </si>
+  <si>
+    <t>0.11240178</t>
+  </si>
+  <si>
+    <t>0.11411001</t>
+  </si>
+  <si>
+    <t>svmlin</t>
+  </si>
+  <si>
+    <t>0.22668261</t>
+  </si>
+  <si>
+    <t>0.22565767</t>
+  </si>
+  <si>
+    <t>0.22599932</t>
+  </si>
+  <si>
+    <t>0.22617014</t>
+  </si>
+  <si>
+    <t>0.22309532</t>
+  </si>
+  <si>
+    <t>0.22582849</t>
+  </si>
+  <si>
+    <t>0.22172873</t>
+  </si>
+  <si>
+    <t>svmpoly</t>
+  </si>
+  <si>
+    <t>0.22258285</t>
+  </si>
+  <si>
+    <t>0.22207038</t>
+  </si>
+  <si>
+    <t>0.22326614</t>
+  </si>
+  <si>
+    <t>0.22241203</t>
+  </si>
+  <si>
+    <t>0.12623847</t>
+  </si>
+  <si>
+    <t>svmrbf</t>
+  </si>
+  <si>
+    <t>0.12914247</t>
+  </si>
+  <si>
+    <t>0.12726341</t>
+  </si>
+  <si>
+    <t>0.13016741</t>
+  </si>
+  <si>
+    <t>0.12504271</t>
+  </si>
+  <si>
+    <t>0.12521353</t>
+  </si>
+  <si>
+    <t>0.12538435</t>
+  </si>
+  <si>
+    <t>0.12880082</t>
+  </si>
+  <si>
+    <t>0.12811753</t>
+  </si>
+  <si>
+    <t>bagging-rf</t>
+  </si>
+  <si>
+    <t>0.9038536</t>
+  </si>
+  <si>
+    <t>0.9060894</t>
+  </si>
+  <si>
+    <t>0.9056993</t>
+  </si>
+  <si>
+    <t>0.9060797</t>
+  </si>
+  <si>
+    <t>0.9057429</t>
+  </si>
+  <si>
+    <t>0.10044414</t>
+  </si>
+  <si>
+    <t>0.9065597</t>
+  </si>
+  <si>
+    <t>0.10010249</t>
+  </si>
+  <si>
+    <t>0.9061362</t>
+  </si>
+  <si>
+    <t>0.9070461</t>
+  </si>
+  <si>
+    <t>0.9078804</t>
+  </si>
+  <si>
+    <t>0.9052012</t>
+  </si>
+  <si>
+    <t>0.10317731</t>
+  </si>
+  <si>
+    <t>rf-xgboost</t>
+  </si>
+  <si>
+    <t>0.9043580</t>
+  </si>
+  <si>
+    <t>0.09941920</t>
+  </si>
+  <si>
+    <t>0.9060138</t>
+  </si>
+  <si>
+    <t>0.9060887</t>
+  </si>
+  <si>
+    <t>0.9060502</t>
+  </si>
+  <si>
+    <t>0.9067247</t>
+  </si>
+  <si>
+    <t>0.9064435</t>
+  </si>
+  <si>
+    <t>0.9071070</t>
+  </si>
+  <si>
+    <t>0.9066136</t>
+  </si>
+  <si>
+    <t>0.9076672</t>
+  </si>
+  <si>
+    <t>0.09771097</t>
+  </si>
+  <si>
+    <t>0.9062127</t>
+  </si>
+  <si>
+    <t>bagging-rf-gbm</t>
+  </si>
+  <si>
+    <t>0.9037489</t>
+  </si>
+  <si>
+    <t>0.9059630</t>
+  </si>
+  <si>
+    <t>0.9048721</t>
+  </si>
+  <si>
+    <t>0.09924838</t>
+  </si>
+  <si>
+    <t>0.9059896</t>
+  </si>
+  <si>
+    <t>0.9055654</t>
+  </si>
+  <si>
+    <t>0.09788179</t>
+  </si>
+  <si>
+    <t>0.9055149</t>
+  </si>
+  <si>
+    <t>0.9048911</t>
+  </si>
+  <si>
+    <t>0.9068343</t>
+  </si>
+  <si>
+    <t>0.9063235</t>
+  </si>
+  <si>
+    <t>0.9047294</t>
+  </si>
+  <si>
+    <t>bagging-rf-xgboost</t>
+  </si>
+  <si>
+    <t>0.9045719</t>
+  </si>
+  <si>
+    <t>0.9063171</t>
+  </si>
+  <si>
+    <t>0.9065630</t>
+  </si>
+  <si>
+    <t>0.9064190</t>
+  </si>
+  <si>
+    <t>0.9068580</t>
+  </si>
+  <si>
+    <t>0.9068832</t>
+  </si>
+  <si>
+    <t>0.9072871</t>
+  </si>
+  <si>
+    <t>0.9071800</t>
+  </si>
+  <si>
+    <t>0.9080642</t>
+  </si>
+  <si>
+    <t>0.9065412</t>
+  </si>
+  <si>
+    <t>xgboost-gbm-bagging-rf</t>
+  </si>
+  <si>
+    <t>0.9041350</t>
+  </si>
+  <si>
+    <t>0.9057657</t>
+  </si>
+  <si>
+    <t>0.9053185</t>
+  </si>
+  <si>
+    <t>0.09856508</t>
+  </si>
+  <si>
+    <t>0.9060627</t>
+  </si>
+  <si>
+    <t>0.9060188</t>
+  </si>
+  <si>
+    <t>0.9059034</t>
+  </si>
+  <si>
+    <t>0.9058800</t>
+  </si>
+  <si>
+    <t>0.9066970</t>
+  </si>
+  <si>
+    <t>0.9067263</t>
+  </si>
+  <si>
+    <t>0.09736932</t>
+  </si>
+  <si>
+    <t>0.9054165</t>
+  </si>
+  <si>
+    <t>Ensamblado-3</t>
+  </si>
+  <si>
+    <t>Ensamblado-4</t>
+  </si>
+  <si>
+    <t>Ensamblado-2</t>
   </si>
 </sst>
 </file>
@@ -6350,7 +6738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5D001-6A79-E343-8C9E-36C8C0394D2C}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
@@ -8351,4 +8739,1998 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165A9ECD-B3AF-2A4D-B299-10A726DE42FC}">
+  <dimension ref="A1:D141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" t="s">
+        <v>350</v>
+      </c>
+      <c r="C41" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" t="s">
+        <v>313</v>
+      </c>
+      <c r="D56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C58" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>361</v>
+      </c>
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>361</v>
+      </c>
+      <c r="B70" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" t="s">
+        <v>367</v>
+      </c>
+      <c r="C71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" t="s">
+        <v>368</v>
+      </c>
+      <c r="C72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>369</v>
+      </c>
+      <c r="B74" t="s">
+        <v>370</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" t="s">
+        <v>372</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>369</v>
+      </c>
+      <c r="B79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" t="s">
+        <v>328</v>
+      </c>
+      <c r="C81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>375</v>
+      </c>
+      <c r="B82" t="s">
+        <v>374</v>
+      </c>
+      <c r="C82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>375</v>
+      </c>
+      <c r="B83" t="s">
+        <v>376</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>375</v>
+      </c>
+      <c r="B84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>375</v>
+      </c>
+      <c r="B85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>375</v>
+      </c>
+      <c r="B88" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" t="s">
+        <v>382</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" t="s">
+        <v>381</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>384</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>384</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>384</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>387</v>
+      </c>
+      <c r="D94" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>384</v>
+      </c>
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" t="s">
+        <v>388</v>
+      </c>
+      <c r="D95" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" t="s">
+        <v>391</v>
+      </c>
+      <c r="D97" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>384</v>
+      </c>
+      <c r="B98" t="s">
+        <v>392</v>
+      </c>
+      <c r="C98" t="s">
+        <v>393</v>
+      </c>
+      <c r="D98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>384</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>394</v>
+      </c>
+      <c r="D99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>395</v>
+      </c>
+      <c r="D100" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>384</v>
+      </c>
+      <c r="B101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" t="s">
+        <v>396</v>
+      </c>
+      <c r="D101" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>398</v>
+      </c>
+      <c r="B102" t="s">
+        <v>397</v>
+      </c>
+      <c r="C102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>398</v>
+      </c>
+      <c r="B103" t="s">
+        <v>400</v>
+      </c>
+      <c r="C103" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>398</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>402</v>
+      </c>
+      <c r="D104" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>398</v>
+      </c>
+      <c r="B105" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" t="s">
+        <v>403</v>
+      </c>
+      <c r="D105" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>398</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>398</v>
+      </c>
+      <c r="B107" t="s">
+        <v>390</v>
+      </c>
+      <c r="C107" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>398</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>406</v>
+      </c>
+      <c r="D108" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>398</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>407</v>
+      </c>
+      <c r="D109" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" t="s">
+        <v>350</v>
+      </c>
+      <c r="C110" t="s">
+        <v>408</v>
+      </c>
+      <c r="D110" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>398</v>
+      </c>
+      <c r="B111" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" t="s">
+        <v>410</v>
+      </c>
+      <c r="D111" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>411</v>
+      </c>
+      <c r="B114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" t="s">
+        <v>414</v>
+      </c>
+      <c r="D114" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115" t="s">
+        <v>415</v>
+      </c>
+      <c r="C115" t="s">
+        <v>416</v>
+      </c>
+      <c r="D115" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>411</v>
+      </c>
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>411</v>
+      </c>
+      <c r="B117" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>411</v>
+      </c>
+      <c r="B118" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>411</v>
+      </c>
+      <c r="B119" t="s">
+        <v>392</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>411</v>
+      </c>
+      <c r="B120" t="s">
+        <v>400</v>
+      </c>
+      <c r="C120" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>411</v>
+      </c>
+      <c r="B121" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>424</v>
+      </c>
+      <c r="B122" t="s">
+        <v>334</v>
+      </c>
+      <c r="C122" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" t="s">
+        <v>426</v>
+      </c>
+      <c r="D123" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>424</v>
+      </c>
+      <c r="B124" t="s">
+        <v>392</v>
+      </c>
+      <c r="C124" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>428</v>
+      </c>
+      <c r="D125" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>424</v>
+      </c>
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" t="s">
+        <v>430</v>
+      </c>
+      <c r="D127" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128" t="s">
+        <v>91</v>
+      </c>
+      <c r="C128" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" t="s">
+        <v>432</v>
+      </c>
+      <c r="D129" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" t="s">
+        <v>433</v>
+      </c>
+      <c r="D130" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>424</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>434</v>
+      </c>
+      <c r="D131" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>435</v>
+      </c>
+      <c r="B132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" t="s">
+        <v>436</v>
+      </c>
+      <c r="D132" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>435</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>437</v>
+      </c>
+      <c r="D133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>435</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" t="s">
+        <v>438</v>
+      </c>
+      <c r="D134" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" t="s">
+        <v>439</v>
+      </c>
+      <c r="C135" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" t="s">
+        <v>400</v>
+      </c>
+      <c r="C136" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>435</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" t="s">
+        <v>442</v>
+      </c>
+      <c r="D137" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>435</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>435</v>
+      </c>
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" t="s">
+        <v>444</v>
+      </c>
+      <c r="D139" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>435</v>
+      </c>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>445</v>
+      </c>
+      <c r="D140" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>435</v>
+      </c>
+      <c r="B141" t="s">
+        <v>446</v>
+      </c>
+      <c r="C141" t="s">
+        <v>447</v>
+      </c>
+      <c r="D141" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FD8E5-9E3F-1447-BE9C-FC859A3A58DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038AA99D-F15B-8947-B87F-559CA41C0DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="6" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="-760" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="459">
   <si>
     <t>tasa</t>
   </si>
@@ -576,48 +576,9 @@
     <t>0.5389630</t>
   </si>
   <si>
-    <t>0.2242911</t>
-  </si>
-  <si>
-    <t>0.7012111</t>
-  </si>
-  <si>
-    <t>0.7011884</t>
-  </si>
-  <si>
-    <t>0.7005636</t>
-  </si>
-  <si>
-    <t>0.2241203</t>
-  </si>
-  <si>
-    <t>0.7010056</t>
-  </si>
-  <si>
     <t>0.2239494</t>
   </si>
   <si>
-    <t>0.7005606</t>
-  </si>
-  <si>
-    <t>0.7017963</t>
-  </si>
-  <si>
-    <t>0.7014294</t>
-  </si>
-  <si>
-    <t>0.7016324</t>
-  </si>
-  <si>
-    <t>0.7023512</t>
-  </si>
-  <si>
-    <t>0.2285796</t>
-  </si>
-  <si>
-    <t>0.6944464</t>
-  </si>
-  <si>
     <t>SVM POLY MODELO 1</t>
   </si>
   <si>
@@ -666,75 +627,21 @@
     <t>0.6922340</t>
   </si>
   <si>
-    <t>0.1604031</t>
-  </si>
-  <si>
-    <t>0.8492403</t>
-  </si>
-  <si>
-    <t>0.1522036</t>
-  </si>
-  <si>
-    <t>0.8464880</t>
-  </si>
-  <si>
-    <t>0.1566450</t>
-  </si>
-  <si>
-    <t>0.8505205</t>
-  </si>
-  <si>
-    <t>0.8464257</t>
-  </si>
-  <si>
-    <t>0.1595490</t>
-  </si>
-  <si>
-    <t>0.8420095</t>
-  </si>
-  <si>
     <t>0.1564742</t>
   </si>
   <si>
-    <t>0.8449656</t>
-  </si>
-  <si>
-    <t>0.1557909</t>
-  </si>
-  <si>
-    <t>0.8468634</t>
-  </si>
-  <si>
-    <t>0.1559617</t>
-  </si>
-  <si>
-    <t>0.8445934</t>
-  </si>
-  <si>
     <t>0.1581824</t>
   </si>
   <si>
-    <t>0.8483760</t>
-  </si>
-  <si>
-    <t>0.8444371</t>
-  </si>
-  <si>
     <t>SVM RBF MODELO 1</t>
   </si>
   <si>
     <t>SVM RBF MODELO 2</t>
   </si>
   <si>
-    <t>0.1262385</t>
-  </si>
-  <si>
     <t>0.8448844</t>
   </si>
   <si>
-    <t>0.1291425</t>
-  </si>
-  <si>
     <t>0.8468253</t>
   </si>
   <si>
@@ -750,33 +657,18 @@
     <t>0.8423715</t>
   </si>
   <si>
-    <t>0.1250427</t>
-  </si>
-  <si>
     <t>0.8428633</t>
   </si>
   <si>
-    <t>0.1252135</t>
-  </si>
-  <si>
     <t>0.8478208</t>
   </si>
   <si>
-    <t>0.1253844</t>
-  </si>
-  <si>
     <t>0.8467597</t>
   </si>
   <si>
-    <t>0.1288008</t>
-  </si>
-  <si>
     <t>0.8404545</t>
   </si>
   <si>
-    <t>0.1281175</t>
-  </si>
-  <si>
     <t>0.8425200</t>
   </si>
   <si>
@@ -1387,6 +1279,144 @@
   </si>
   <si>
     <t>0.8854830</t>
+  </si>
+  <si>
+    <t>0.7011733</t>
+  </si>
+  <si>
+    <t>0.7009634</t>
+  </si>
+  <si>
+    <t>0.7006653</t>
+  </si>
+  <si>
+    <t>0.7011981</t>
+  </si>
+  <si>
+    <t>0.7006141</t>
+  </si>
+  <si>
+    <t>0.7020555</t>
+  </si>
+  <si>
+    <t>0.7016217</t>
+  </si>
+  <si>
+    <t>0.7016045</t>
+  </si>
+  <si>
+    <t>0.7023046</t>
+  </si>
+  <si>
+    <t>0.2249744</t>
+  </si>
+  <si>
+    <t>0.7001049</t>
+  </si>
+  <si>
+    <t>0.1580116</t>
+  </si>
+  <si>
+    <t>0.8499871</t>
+  </si>
+  <si>
+    <t>0.1545951</t>
+  </si>
+  <si>
+    <t>0.8511829</t>
+  </si>
+  <si>
+    <t>0.1592074</t>
+  </si>
+  <si>
+    <t>0.8523687</t>
+  </si>
+  <si>
+    <t>0.1590366</t>
+  </si>
+  <si>
+    <t>0.8522315</t>
+  </si>
+  <si>
+    <t>0.1610864</t>
+  </si>
+  <si>
+    <t>0.8457791</t>
+  </si>
+  <si>
+    <t>0.8493758</t>
+  </si>
+  <si>
+    <t>0.8514609</t>
+  </si>
+  <si>
+    <t>0.1571575</t>
+  </si>
+  <si>
+    <t>0.8498524</t>
+  </si>
+  <si>
+    <t>0.1593782</t>
+  </si>
+  <si>
+    <t>0.8524206</t>
+  </si>
+  <si>
+    <t>0.1588657</t>
+  </si>
+  <si>
+    <t>0.8473466</t>
+  </si>
+  <si>
+    <t>0.1282883</t>
+  </si>
+  <si>
+    <t>0.8488157</t>
+  </si>
+  <si>
+    <t>0.1313632</t>
+  </si>
+  <si>
+    <t>0.8501818</t>
+  </si>
+  <si>
+    <t>0.1303382</t>
+  </si>
+  <si>
+    <t>0.8518608</t>
+  </si>
+  <si>
+    <t>0.8477604</t>
+  </si>
+  <si>
+    <t>0.1270926</t>
+  </si>
+  <si>
+    <t>0.8484084</t>
+  </si>
+  <si>
+    <t>0.1293133</t>
+  </si>
+  <si>
+    <t>0.8490629</t>
+  </si>
+  <si>
+    <t>0.8505698</t>
+  </si>
+  <si>
+    <t>0.1298258</t>
+  </si>
+  <si>
+    <t>0.8458208</t>
+  </si>
+  <si>
+    <t>0.8456624</t>
+  </si>
+  <si>
+    <t>0.1289716</t>
+  </si>
+  <si>
+    <t>0.8488097</t>
   </si>
 </sst>
 </file>
@@ -1996,10 +2026,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2007,10 +2037,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2021,7 +2051,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -2029,10 +2059,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2043,7 +2073,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -2054,7 +2084,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -2062,10 +2092,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -2073,10 +2103,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2087,7 +2117,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2095,10 +2125,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -2463,10 +2493,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2474,10 +2504,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2488,7 +2518,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -2496,10 +2526,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2510,7 +2540,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -2521,7 +2551,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -2529,10 +2559,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -2540,10 +2570,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2554,7 +2584,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2562,10 +2592,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -2911,7 +2941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE70A919-51A8-384A-AAAE-82A240E9E1DE}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:C31"/>
     </sheetView>
   </sheetViews>
@@ -3150,10 +3180,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -3161,10 +3191,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -3175,7 +3205,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -3183,10 +3213,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -3197,7 +3227,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -3208,7 +3238,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -3216,10 +3246,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -3227,10 +3257,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -3241,7 +3271,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -3249,10 +3279,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -4057,10 +4087,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -4068,10 +4098,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -4082,7 +4112,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -4090,10 +4120,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -4104,7 +4134,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -4115,7 +4145,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4123,10 +4153,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -4134,10 +4164,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -4148,7 +4178,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -4156,10 +4186,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -4720,7 +4750,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
         <v>137</v>
@@ -4731,7 +4761,7 @@
         <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
         <v>137</v>
@@ -4739,10 +4769,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
         <v>137</v>
@@ -4753,7 +4783,7 @@
         <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
         <v>137</v>
@@ -4761,10 +4791,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
         <v>137</v>
@@ -4775,7 +4805,7 @@
         <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>137</v>
@@ -4783,10 +4813,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>137</v>
@@ -4797,7 +4827,7 @@
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
         <v>137</v>
@@ -4808,7 +4838,7 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
         <v>137</v>
@@ -4819,7 +4849,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s">
         <v>137</v>
@@ -4830,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
@@ -4838,10 +4868,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
         <v>138</v>
@@ -4852,7 +4882,7 @@
         <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
@@ -4863,7 +4893,7 @@
         <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
         <v>138</v>
@@ -4874,7 +4904,7 @@
         <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
         <v>138</v>
@@ -4885,7 +4915,7 @@
         <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
         <v>138</v>
@@ -4896,7 +4926,7 @@
         <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>138</v>
@@ -4907,7 +4937,7 @@
         <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>138</v>
@@ -4918,7 +4948,7 @@
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
         <v>138</v>
@@ -4929,7 +4959,7 @@
         <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
         <v>138</v>
@@ -4945,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B7BB46-FE0F-BC49-87F5-3B28DE990E30}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C31"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5184,10 +5214,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -5195,10 +5225,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -5209,7 +5239,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -5217,10 +5247,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -5231,7 +5261,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -5242,7 +5272,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -5250,10 +5280,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -5261,10 +5291,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -5275,7 +5305,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -5283,10 +5313,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -5847,7 +5877,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
         <v>137</v>
@@ -5858,7 +5888,7 @@
         <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
         <v>137</v>
@@ -5866,10 +5896,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
         <v>137</v>
@@ -5880,7 +5910,7 @@
         <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
         <v>137</v>
@@ -5888,10 +5918,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
         <v>137</v>
@@ -5902,7 +5932,7 @@
         <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>137</v>
@@ -5910,10 +5940,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>137</v>
@@ -5924,7 +5954,7 @@
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
         <v>137</v>
@@ -5935,7 +5965,7 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
         <v>137</v>
@@ -5946,7 +5976,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s">
         <v>137</v>
@@ -5957,7 +5987,7 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
@@ -5965,10 +5995,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
         <v>138</v>
@@ -5979,7 +6009,7 @@
         <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
@@ -5990,7 +6020,7 @@
         <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
         <v>138</v>
@@ -6001,7 +6031,7 @@
         <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
         <v>138</v>
@@ -6012,7 +6042,7 @@
         <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
         <v>138</v>
@@ -6023,7 +6053,7 @@
         <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>138</v>
@@ -6034,7 +6064,7 @@
         <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>138</v>
@@ -6045,7 +6075,7 @@
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
         <v>138</v>
@@ -6056,7 +6086,7 @@
         <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
         <v>138</v>
@@ -6284,68 +6314,68 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" t="s">
         <v>179</v>
-      </c>
-      <c r="C122" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="C123" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>181</v>
+        <v>415</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -6353,43 +6383,43 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="C128" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>423</v>
       </c>
       <c r="C131" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -6397,10 +6427,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -6408,43 +6438,43 @@
         <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C133" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -6452,10 +6482,10 @@
         <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -6463,21 +6493,21 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -6485,10 +6515,10 @@
         <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -6496,230 +6526,230 @@
         <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>424</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>426</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="C143" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>428</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>430</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="C145" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="C146" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="C147" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="C148" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>223</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s">
-        <v>224</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>441</v>
       </c>
       <c r="C151" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>443</v>
       </c>
       <c r="C152" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>450</v>
       </c>
       <c r="C156" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>452</v>
       </c>
       <c r="C157" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B158" t="s">
-        <v>241</v>
+        <v>453</v>
       </c>
       <c r="C158" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>242</v>
+        <v>454</v>
       </c>
       <c r="B159" t="s">
-        <v>243</v>
+        <v>455</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>454</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>457</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>458</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6732,8 +6762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5D001-6A79-E343-8C9E-36C8C0394D2C}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,10 +7001,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -6982,10 +7012,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -6996,7 +7026,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -7004,10 +7034,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -7018,7 +7048,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -7029,7 +7059,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -7037,10 +7067,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -7048,10 +7078,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -7062,7 +7092,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -7070,10 +7100,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -7634,7 +7664,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
         <v>137</v>
@@ -7645,7 +7675,7 @@
         <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
         <v>137</v>
@@ -7653,10 +7683,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
         <v>137</v>
@@ -7667,7 +7697,7 @@
         <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
         <v>137</v>
@@ -7675,10 +7705,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
         <v>137</v>
@@ -7689,7 +7719,7 @@
         <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>137</v>
@@ -7697,10 +7727,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>137</v>
@@ -7711,7 +7741,7 @@
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
         <v>137</v>
@@ -7722,7 +7752,7 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
         <v>137</v>
@@ -7733,7 +7763,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s">
         <v>137</v>
@@ -7744,7 +7774,7 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
@@ -7752,10 +7782,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
         <v>138</v>
@@ -7766,7 +7796,7 @@
         <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
@@ -7777,7 +7807,7 @@
         <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
         <v>138</v>
@@ -7788,7 +7818,7 @@
         <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
         <v>138</v>
@@ -7799,7 +7829,7 @@
         <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
         <v>138</v>
@@ -7810,7 +7840,7 @@
         <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>138</v>
@@ -7821,7 +7851,7 @@
         <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>138</v>
@@ -7832,7 +7862,7 @@
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
         <v>138</v>
@@ -7843,7 +7873,7 @@
         <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
         <v>138</v>
@@ -8071,68 +8101,68 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" t="s">
         <v>179</v>
-      </c>
-      <c r="C122" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="C123" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>181</v>
+        <v>415</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -8140,43 +8170,43 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="C128" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>423</v>
       </c>
       <c r="C131" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -8184,10 +8214,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -8195,43 +8225,43 @@
         <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C133" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -8239,10 +8269,10 @@
         <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -8250,21 +8280,21 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -8272,10 +8302,10 @@
         <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -8283,296 +8313,296 @@
         <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>424</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>426</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="C143" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>428</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>430</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="C145" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="C146" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="C147" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="C148" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>223</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s">
-        <v>224</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>441</v>
       </c>
       <c r="C151" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>443</v>
       </c>
       <c r="C152" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>450</v>
       </c>
       <c r="C156" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>452</v>
       </c>
       <c r="C157" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B158" t="s">
-        <v>241</v>
+        <v>453</v>
       </c>
       <c r="C158" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>242</v>
+        <v>454</v>
       </c>
       <c r="B159" t="s">
-        <v>243</v>
+        <v>455</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>454</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>457</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>458</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="C162" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="C163" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C164" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="C165" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B166" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C166" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -8580,10 +8610,10 @@
         <v>120</v>
       </c>
       <c r="B168" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C168" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -8591,10 +8621,10 @@
         <v>118</v>
       </c>
       <c r="B169" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C169" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -8602,131 +8632,131 @@
         <v>124</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C170" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B173" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="C173" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B174" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C174" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C175" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C176" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B177" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C177" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B178" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C178" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="B180" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C180" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C181" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8739,7 +8769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165A9ECD-B3AF-2A4D-B299-10A726DE42FC}">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
@@ -8760,152 +8790,152 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -8914,12 +8944,12 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -8928,12 +8958,12 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -8942,54 +8972,54 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -8998,12 +9028,12 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -9012,40 +9042,40 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -9054,12 +9084,12 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
@@ -9068,12 +9098,12 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
@@ -9082,12 +9112,12 @@
         <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
@@ -9096,12 +9126,12 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
@@ -9110,12 +9140,12 @@
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
@@ -9124,12 +9154,12 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
@@ -9138,12 +9168,12 @@
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -9152,12 +9182,12 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -9166,12 +9196,12 @@
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
@@ -9180,1547 +9210,1547 @@
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
         <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s">
         <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s">
         <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C41" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B48" t="s">
         <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s">
         <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D56" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="D57" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="C58" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B62" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C62" t="s">
         <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="C63" t="s">
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
         <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="C66" t="s">
         <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
         <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C68" t="s">
         <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="C69" t="s">
         <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
         <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="D90" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C91" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B92" t="s">
         <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s">
         <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="D93" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
         <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="D94" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B95" t="s">
         <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B96" t="s">
         <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="D96" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B97" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="C97" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="D97" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C98" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="D98" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="D99" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="D100" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="D101" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="D102" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C103" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s">
         <v>139</v>
       </c>
       <c r="C104" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="C105" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D105" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B106" t="s">
         <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="D106" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="C107" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D107" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="D109" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C110" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="C111" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="D111" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="C112" t="s">
+        <v>359</v>
+      </c>
+      <c r="D112" t="s">
         <v>395</v>
-      </c>
-      <c r="D112" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B113" t="s">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="D113" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B114" t="s">
         <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D114" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B115" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C115" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="D115" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="C117" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s">
         <v>75</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="D118" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C119" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C120" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s">
         <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C122" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="D122" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s">
         <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="D123" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C124" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="D124" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
         <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="D125" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D126" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B127" t="s">
         <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="D127" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B128" t="s">
         <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="D128" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="D130" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="D131" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B132" t="s">
         <v>72</v>
       </c>
       <c r="C132" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="D132" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="D133" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="D134" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="C135" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D135" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B136" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="D136" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="D137" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="D138" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B139" t="s">
         <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D139" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B140" t="s">
         <v>76</v>
       </c>
       <c r="C140" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="C141" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="D141" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038AA99D-F15B-8947-B87F-559CA41C0DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFDE973-CC26-5A46-AF05-0091F290C6A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="8540" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="453">
   <si>
     <t>tasa</t>
   </si>
@@ -747,72 +747,12 @@
     <t>0.8946102</t>
   </si>
   <si>
-    <t>XGBOOST MODELO 1</t>
-  </si>
-  <si>
-    <t>XGBOOST MODELO 2</t>
-  </si>
-  <si>
-    <t>0.10966860</t>
-  </si>
-  <si>
-    <t>0.9074762</t>
-  </si>
-  <si>
-    <t>0.11018107</t>
-  </si>
-  <si>
-    <t>0.9080946</t>
-  </si>
-  <si>
-    <t>0.9102036</t>
-  </si>
-  <si>
-    <t>0.9078077</t>
-  </si>
-  <si>
-    <t>0.11137684</t>
-  </si>
-  <si>
-    <t>0.9087181</t>
-  </si>
-  <si>
-    <t>0.10864366</t>
-  </si>
-  <si>
-    <t>0.9096663</t>
-  </si>
-  <si>
-    <t>0.9093636</t>
-  </si>
-  <si>
-    <t>0.9104525</t>
-  </si>
-  <si>
-    <t>0.9088248</t>
-  </si>
-  <si>
-    <t>0.10881449</t>
-  </si>
-  <si>
-    <t>0.9072470</t>
-  </si>
-  <si>
-    <t>0.1130851</t>
-  </si>
-  <si>
     <t>0.8985175</t>
   </si>
   <si>
-    <t>0.1134267</t>
-  </si>
-  <si>
     <t>0.8981329</t>
   </si>
   <si>
-    <t>0.1132559</t>
-  </si>
-  <si>
     <t>0.8992223</t>
   </si>
   <si>
@@ -825,24 +765,15 @@
     <t>0.9001156</t>
   </si>
   <si>
-    <t>0.1166724</t>
-  </si>
-  <si>
     <t>0.8986853</t>
   </si>
   <si>
-    <t>0.1124018</t>
-  </si>
-  <si>
     <t>0.9008901</t>
   </si>
   <si>
     <t>0.8987851</t>
   </si>
   <si>
-    <t>0.1141100</t>
-  </si>
-  <si>
     <t>0.9001089</t>
   </si>
   <si>
@@ -1417,6 +1348,57 @@
   </si>
   <si>
     <t>0.8488097</t>
+  </si>
+  <si>
+    <t>0.1019816</t>
+  </si>
+  <si>
+    <t>0.9025467</t>
+  </si>
+  <si>
+    <t>0.1035190</t>
+  </si>
+  <si>
+    <t>0.9055416</t>
+  </si>
+  <si>
+    <t>0.1004441</t>
+  </si>
+  <si>
+    <t>0.9059408</t>
+  </si>
+  <si>
+    <t>0.9045330</t>
+  </si>
+  <si>
+    <t>0.9050409</t>
+  </si>
+  <si>
+    <t>0.1021524</t>
+  </si>
+  <si>
+    <t>0.9042451</t>
+  </si>
+  <si>
+    <t>0.1012983</t>
+  </si>
+  <si>
+    <t>0.9046627</t>
+  </si>
+  <si>
+    <t>0.1023232</t>
+  </si>
+  <si>
+    <t>0.9067885</t>
+  </si>
+  <si>
+    <t>0.9050492</t>
+  </si>
+  <si>
+    <t>0.9055880</t>
+  </si>
+  <si>
+    <t>XGBOOST</t>
   </si>
 </sst>
 </file>
@@ -2026,10 +2008,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2037,10 +2019,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2051,7 +2033,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -2059,10 +2041,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2073,7 +2055,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -2084,7 +2066,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -2092,10 +2074,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -2103,10 +2085,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2117,7 +2099,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2125,10 +2107,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -2493,10 +2475,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2504,10 +2486,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2518,7 +2500,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -2526,10 +2508,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2540,7 +2522,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -2551,7 +2533,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -2559,10 +2541,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -2570,10 +2552,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2584,7 +2566,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2592,10 +2574,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -3180,10 +3162,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -3191,10 +3173,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -3205,7 +3187,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -3213,10 +3195,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -3227,7 +3209,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -3238,7 +3220,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -3246,10 +3228,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -3257,10 +3239,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -3271,7 +3253,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -3279,10 +3261,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -4087,10 +4069,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -4098,10 +4080,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -4112,7 +4094,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -4120,10 +4102,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -4134,7 +4116,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -4145,7 +4127,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4153,10 +4135,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -4164,10 +4146,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -4178,7 +4160,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -4186,10 +4168,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -5214,10 +5196,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -5225,10 +5207,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -5239,7 +5221,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -5247,10 +5229,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -5261,7 +5243,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -5272,7 +5254,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -5280,10 +5262,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -5291,10 +5273,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -5305,7 +5287,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -5313,10 +5295,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -6317,7 +6299,7 @@
         <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
         <v>179</v>
@@ -6328,7 +6310,7 @@
         <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="C123" t="s">
         <v>179</v>
@@ -6339,7 +6321,7 @@
         <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s">
         <v>179</v>
@@ -6350,7 +6332,7 @@
         <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C125" t="s">
         <v>179</v>
@@ -6361,7 +6343,7 @@
         <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="C126" t="s">
         <v>179</v>
@@ -6372,7 +6354,7 @@
         <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="C127" t="s">
         <v>179</v>
@@ -6383,7 +6365,7 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C128" t="s">
         <v>179</v>
@@ -6394,7 +6376,7 @@
         <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="C129" t="s">
         <v>179</v>
@@ -6405,7 +6387,7 @@
         <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C130" t="s">
         <v>179</v>
@@ -6413,10 +6395,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B131" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="C131" t="s">
         <v>179</v>
@@ -6534,10 +6516,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="C142" t="s">
         <v>197</v>
@@ -6545,10 +6527,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="B143" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C143" t="s">
         <v>197</v>
@@ -6556,10 +6538,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="C144" t="s">
         <v>197</v>
@@ -6567,10 +6549,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B145" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C145" t="s">
         <v>197</v>
@@ -6578,10 +6560,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B146" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C146" t="s">
         <v>197</v>
@@ -6592,7 +6574,7 @@
         <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C147" t="s">
         <v>197</v>
@@ -6603,7 +6585,7 @@
         <v>196</v>
       </c>
       <c r="B148" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C148" t="s">
         <v>197</v>
@@ -6611,10 +6593,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="C149" t="s">
         <v>197</v>
@@ -6622,10 +6604,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B150" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
         <v>197</v>
@@ -6633,10 +6615,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="B151" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C151" t="s">
         <v>197</v>
@@ -6644,10 +6626,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B152" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="C152" t="s">
         <v>198</v>
@@ -6655,10 +6637,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B153" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C153" t="s">
         <v>198</v>
@@ -6666,10 +6648,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="C154" t="s">
         <v>198</v>
@@ -6680,7 +6662,7 @@
         <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C155" t="s">
         <v>198</v>
@@ -6688,10 +6670,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B156" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C156" t="s">
         <v>198</v>
@@ -6699,10 +6681,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B157" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
         <v>198</v>
@@ -6713,7 +6695,7 @@
         <v>201</v>
       </c>
       <c r="B158" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="C158" t="s">
         <v>198</v>
@@ -6721,10 +6703,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B159" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C159" t="s">
         <v>198</v>
@@ -6732,10 +6714,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B160" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="C160" t="s">
         <v>198</v>
@@ -6743,10 +6725,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B161" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="C161" t="s">
         <v>198</v>
@@ -6760,10 +6742,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5D001-6A79-E343-8C9E-36C8C0394D2C}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6781,1982 +6763,992 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="B22" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>400</v>
-      </c>
-      <c r="B23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>402</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>405</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
+      <c r="A27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>406</v>
-      </c>
-      <c r="B28" t="s">
-        <v>407</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>408</v>
-      </c>
-      <c r="B29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>411</v>
-      </c>
-      <c r="B31" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>26</v>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>26</v>
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>26</v>
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>26</v>
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>26</v>
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>26</v>
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>26</v>
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>25</v>
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>25</v>
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>25</v>
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>25</v>
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>25</v>
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>25</v>
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>25</v>
+      <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>25</v>
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>25</v>
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>25</v>
+      <c r="A61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>420</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>424</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>432</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>431</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>433</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>439</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>213</v>
+        <v>440</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>441</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>446</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" t="s">
-        <v>224</v>
-      </c>
-      <c r="C92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>225</v>
-      </c>
-      <c r="B93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" t="s">
-        <v>227</v>
-      </c>
-      <c r="C94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" t="s">
-        <v>228</v>
-      </c>
-      <c r="C95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C96" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>139</v>
-      </c>
-      <c r="B99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>139</v>
-      </c>
-      <c r="B100" t="s">
-        <v>233</v>
-      </c>
-      <c r="C100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>141</v>
-      </c>
-      <c r="B101" t="s">
-        <v>234</v>
-      </c>
-      <c r="C101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>145</v>
-      </c>
-      <c r="B104" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" t="s">
-        <v>150</v>
-      </c>
-      <c r="C106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" t="s">
-        <v>154</v>
-      </c>
-      <c r="C109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>160</v>
-      </c>
-      <c r="B112" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>162</v>
-      </c>
-      <c r="B113" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>166</v>
-      </c>
-      <c r="B115" t="s">
-        <v>167</v>
-      </c>
-      <c r="C115" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>168</v>
-      </c>
-      <c r="B116" t="s">
-        <v>169</v>
-      </c>
-      <c r="C116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" t="s">
-        <v>171</v>
-      </c>
-      <c r="C117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>172</v>
-      </c>
-      <c r="B118" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>174</v>
-      </c>
-      <c r="B119" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>172</v>
-      </c>
-      <c r="B120" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>160</v>
-      </c>
-      <c r="B121" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" t="s">
-        <v>413</v>
-      </c>
-      <c r="C122" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>44</v>
-      </c>
-      <c r="B123" t="s">
-        <v>414</v>
-      </c>
-      <c r="C123" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" t="s">
-        <v>415</v>
-      </c>
-      <c r="C124" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>178</v>
-      </c>
-      <c r="B125" t="s">
-        <v>416</v>
-      </c>
-      <c r="C125" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>41</v>
-      </c>
-      <c r="B126" t="s">
-        <v>417</v>
-      </c>
-      <c r="C126" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>41</v>
-      </c>
-      <c r="B127" t="s">
-        <v>418</v>
-      </c>
-      <c r="C127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" t="s">
-        <v>419</v>
-      </c>
-      <c r="C128" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>185</v>
-      </c>
-      <c r="B129" t="s">
-        <v>420</v>
-      </c>
-      <c r="C129" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>187</v>
-      </c>
-      <c r="B130" t="s">
-        <v>421</v>
-      </c>
-      <c r="C130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>422</v>
-      </c>
-      <c r="B131" t="s">
-        <v>423</v>
-      </c>
-      <c r="C131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>46</v>
-      </c>
-      <c r="B133" t="s">
-        <v>182</v>
-      </c>
-      <c r="C133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>183</v>
-      </c>
-      <c r="B134" t="s">
-        <v>184</v>
-      </c>
-      <c r="C134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>185</v>
-      </c>
-      <c r="B135" t="s">
-        <v>186</v>
-      </c>
-      <c r="C135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>187</v>
-      </c>
-      <c r="B136" t="s">
-        <v>188</v>
-      </c>
-      <c r="C136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>38</v>
-      </c>
-      <c r="B137" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>19</v>
-      </c>
-      <c r="B138" t="s">
-        <v>190</v>
-      </c>
-      <c r="C138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>191</v>
-      </c>
-      <c r="B139" t="s">
-        <v>192</v>
-      </c>
-      <c r="C139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>152</v>
-      </c>
-      <c r="B140" t="s">
-        <v>193</v>
-      </c>
-      <c r="C140" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141" t="s">
-        <v>194</v>
-      </c>
-      <c r="C141" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>424</v>
-      </c>
-      <c r="B142" t="s">
-        <v>425</v>
-      </c>
-      <c r="C142" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>426</v>
-      </c>
-      <c r="B143" t="s">
-        <v>427</v>
-      </c>
-      <c r="C143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>428</v>
-      </c>
-      <c r="B144" t="s">
-        <v>429</v>
-      </c>
-      <c r="C144" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>430</v>
-      </c>
-      <c r="B145" t="s">
-        <v>431</v>
-      </c>
-      <c r="C145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>432</v>
-      </c>
-      <c r="B146" t="s">
-        <v>433</v>
-      </c>
-      <c r="C146" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>195</v>
-      </c>
-      <c r="B147" t="s">
-        <v>434</v>
-      </c>
-      <c r="C147" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>196</v>
-      </c>
-      <c r="B148" t="s">
-        <v>435</v>
-      </c>
-      <c r="C148" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>436</v>
-      </c>
-      <c r="B149" t="s">
-        <v>437</v>
-      </c>
-      <c r="C149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>438</v>
-      </c>
-      <c r="B150" t="s">
-        <v>439</v>
-      </c>
-      <c r="C150" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>440</v>
-      </c>
-      <c r="B151" t="s">
-        <v>441</v>
-      </c>
-      <c r="C151" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>442</v>
-      </c>
-      <c r="B152" t="s">
-        <v>443</v>
-      </c>
-      <c r="C152" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>444</v>
-      </c>
-      <c r="B153" t="s">
-        <v>445</v>
-      </c>
-      <c r="C153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>446</v>
-      </c>
-      <c r="B154" t="s">
-        <v>447</v>
-      </c>
-      <c r="C154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>203</v>
-      </c>
-      <c r="B155" t="s">
-        <v>448</v>
-      </c>
-      <c r="C155" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>449</v>
-      </c>
-      <c r="B156" t="s">
-        <v>450</v>
-      </c>
-      <c r="C156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>451</v>
-      </c>
-      <c r="B157" t="s">
         <v>452</v>
-      </c>
-      <c r="C157" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>201</v>
-      </c>
-      <c r="B158" t="s">
-        <v>453</v>
-      </c>
-      <c r="C158" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>454</v>
-      </c>
-      <c r="B159" t="s">
-        <v>455</v>
-      </c>
-      <c r="C159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>454</v>
-      </c>
-      <c r="B160" t="s">
-        <v>456</v>
-      </c>
-      <c r="C160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>457</v>
-      </c>
-      <c r="B161" t="s">
-        <v>458</v>
-      </c>
-      <c r="C161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>237</v>
-      </c>
-      <c r="B162" t="s">
-        <v>238</v>
-      </c>
-      <c r="C162" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>239</v>
-      </c>
-      <c r="B163" t="s">
-        <v>240</v>
-      </c>
-      <c r="C163" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>237</v>
-      </c>
-      <c r="B164" t="s">
-        <v>241</v>
-      </c>
-      <c r="C164" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>237</v>
-      </c>
-      <c r="B165" t="s">
-        <v>242</v>
-      </c>
-      <c r="C165" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" t="s">
-        <v>244</v>
-      </c>
-      <c r="C166" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>245</v>
-      </c>
-      <c r="B167" t="s">
-        <v>246</v>
-      </c>
-      <c r="C167" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>120</v>
-      </c>
-      <c r="B168" t="s">
-        <v>247</v>
-      </c>
-      <c r="C168" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>118</v>
-      </c>
-      <c r="B169" t="s">
-        <v>248</v>
-      </c>
-      <c r="C169" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>124</v>
-      </c>
-      <c r="B170" t="s">
-        <v>249</v>
-      </c>
-      <c r="C170" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>250</v>
-      </c>
-      <c r="B171" t="s">
-        <v>251</v>
-      </c>
-      <c r="C171" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>252</v>
-      </c>
-      <c r="B172" t="s">
-        <v>253</v>
-      </c>
-      <c r="C172" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>254</v>
-      </c>
-      <c r="B173" t="s">
-        <v>255</v>
-      </c>
-      <c r="C173" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>256</v>
-      </c>
-      <c r="B174" t="s">
-        <v>257</v>
-      </c>
-      <c r="C174" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>252</v>
-      </c>
-      <c r="B175" t="s">
-        <v>258</v>
-      </c>
-      <c r="C175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>259</v>
-      </c>
-      <c r="B176" t="s">
-        <v>260</v>
-      </c>
-      <c r="C176" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>261</v>
-      </c>
-      <c r="B177" t="s">
-        <v>262</v>
-      </c>
-      <c r="C177" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>263</v>
-      </c>
-      <c r="B178" t="s">
-        <v>264</v>
-      </c>
-      <c r="C178" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>254</v>
-      </c>
-      <c r="B179" t="s">
-        <v>265</v>
-      </c>
-      <c r="C179" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>266</v>
-      </c>
-      <c r="B180" t="s">
-        <v>267</v>
-      </c>
-      <c r="C180" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>259</v>
-      </c>
-      <c r="B181" t="s">
-        <v>268</v>
-      </c>
-      <c r="C181" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8790,152 +7782,152 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -8944,12 +7936,12 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -8958,12 +7950,12 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -8972,54 +7964,54 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -9028,12 +8020,12 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -9042,26 +8034,26 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
         <v>225</v>
@@ -9070,12 +8062,12 @@
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -9084,12 +8076,12 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
@@ -9098,12 +8090,12 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
@@ -9112,12 +8104,12 @@
         <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
@@ -9126,12 +8118,12 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
@@ -9140,12 +8132,12 @@
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
@@ -9154,12 +8146,12 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
@@ -9168,12 +8160,12 @@
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -9182,12 +8174,12 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -9196,12 +8188,12 @@
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
@@ -9210,152 +8202,152 @@
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
         <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
         <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
         <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
         <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s">
         <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -9364,12 +8356,12 @@
         <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
         <v>225</v>
@@ -9378,12 +8370,12 @@
         <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
@@ -9392,12 +8384,12 @@
         <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
@@ -9406,12 +8398,12 @@
         <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
@@ -9420,12 +8412,12 @@
         <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s">
         <v>136</v>
@@ -9434,12 +8426,12 @@
         <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s">
         <v>72</v>
@@ -9448,12 +8440,12 @@
         <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
@@ -9462,12 +8454,12 @@
         <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
@@ -9476,12 +8468,12 @@
         <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s">
         <v>141</v>
@@ -9490,1267 +8482,1267 @@
         <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B57" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B62" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
         <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C63" t="s">
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B64" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C64" t="s">
         <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C65" t="s">
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
         <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C67" t="s">
         <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
         <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
         <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
         <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
         <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
         <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s">
         <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
         <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s">
         <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s">
         <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
         <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
         <v>192</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
         <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
         <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
         <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
         <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C84" t="s">
         <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C85" t="s">
         <v>204</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="C86" t="s">
         <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C87" t="s">
         <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s">
         <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
         <v>208</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C90" t="s">
         <v>209</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s">
         <v>210</v>
       </c>
       <c r="D91" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
         <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D92" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s">
         <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D93" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B94" t="s">
         <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D94" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B95" t="s">
         <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D95" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B96" t="s">
         <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D96" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D97" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C98" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D98" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B101" t="s">
         <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B102" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D102" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D103" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s">
         <v>139</v>
       </c>
       <c r="C104" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C105" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D105" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
         <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D106" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D107" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D108" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D109" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D110" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
         <v>216</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D112" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D113" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B114" t="s">
         <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D114" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B116" t="s">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D116" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="D117" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B118" t="s">
         <v>75</v>
       </c>
       <c r="C118" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D118" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B119" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D119" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D120" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
         <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D121" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
+        <v>349</v>
+      </c>
+      <c r="D122" t="s">
         <v>372</v>
-      </c>
-      <c r="D122" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B123" t="s">
         <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D123" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C124" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="D124" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s">
         <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D125" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B126" t="s">
         <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D126" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B127" t="s">
         <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D127" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B128" t="s">
         <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B131" t="s">
         <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="D131" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B132" t="s">
         <v>72</v>
       </c>
       <c r="C132" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="D132" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B133" t="s">
         <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D133" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B134" t="s">
         <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="D134" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C135" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="D135" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D136" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D137" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B138" t="s">
         <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="D138" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B139" t="s">
         <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="D139" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B140" t="s">
         <v>76</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D140" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B141" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C141" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D141" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/ComparativaModelos.xlsx
+++ b/ComparativaModelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/UCM/Machine Learning/Practica ML/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFDE973-CC26-5A46-AF05-0091F290C6A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854F944-EE7E-1747-9694-4EC91DED3573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="-18080" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
+    <workbookView xWindow="8540" yWindow="-18100" windowWidth="28800" windowHeight="16340" activeTab="7" xr2:uid="{F64FD7D0-F0DF-1E4D-8389-72ADA7B6EEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="avnnet" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="svm" sheetId="5" r:id="rId5"/>
     <sheet name="xgboost" sheetId="6" r:id="rId6"/>
     <sheet name="ensamblado" sheetId="7" r:id="rId7"/>
+    <sheet name="python_vs_r" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="477">
   <si>
     <t>tasa</t>
   </si>
@@ -1399,13 +1400,85 @@
   </si>
   <si>
     <t>XGBOOST</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST</t>
+  </si>
+  <si>
+    <t>lenguaje</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>0.892160688365066</t>
+  </si>
+  <si>
+    <t>0.890580041956979</t>
+  </si>
+  <si>
+    <t>0.892536685185839</t>
+  </si>
+  <si>
+    <t>0.893679847761666</t>
+  </si>
+  <si>
+    <t>0.893196129621607</t>
+  </si>
+  <si>
+    <t>0.893341275043048</t>
+  </si>
+  <si>
+    <t>0.893676135720543</t>
+  </si>
+  <si>
+    <t>0.89239223493023</t>
+  </si>
+  <si>
+    <t>0.891011368909</t>
+  </si>
+  <si>
+    <t>0.892912647441903</t>
+  </si>
+  <si>
+    <t>0.900811921744751</t>
+  </si>
+  <si>
+    <t>0.900504056679263</t>
+  </si>
+  <si>
+    <t>0.900810626500151</t>
+  </si>
+  <si>
+    <t>0.903456495906542</t>
+  </si>
+  <si>
+    <t>0.902461181942952</t>
+  </si>
+  <si>
+    <t>0.901750442533506</t>
+  </si>
+  <si>
+    <t>0.902829119238763</t>
+  </si>
+  <si>
+    <t>0.901677951931684</t>
+  </si>
+  <si>
+    <t>0.904192897776748</t>
+  </si>
+  <si>
+    <t>0.902127005416476</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1425,6 +1498,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1447,9 +1533,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6744,8 +6832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5D001-6A79-E343-8C9E-36C8C0394D2C}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD81"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C41" sqref="B32:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7761,7 +7849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165A9ECD-B3AF-2A4D-B299-10A726DE42FC}">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
@@ -9749,4 +9837,563 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4359140-C14C-CE41-B480-6A8020A8BEA2}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" t="s">
+        <v>455</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>455</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" t="s">
+        <v>455</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" t="s">
+        <v>455</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" t="s">
+        <v>455</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" t="s">
+        <v>455</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" t="s">
+        <v>455</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" t="s">
+        <v>455</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" t="s">
+        <v>455</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" t="s">
+        <v>455</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" t="s">
+        <v>455</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>455</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>476</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>476</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>476</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C25" t="s">
+        <v>476</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>453</v>
+      </c>
+      <c r="C26" t="s">
+        <v>476</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>476</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>476</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>476</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>476</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>476</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B32" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" t="s">
+        <v>476</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33" t="s">
+        <v>476</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" t="s">
+        <v>476</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" t="s">
+        <v>476</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>443</v>
+      </c>
+      <c r="B36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" t="s">
+        <v>476</v>
+      </c>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" t="s">
+        <v>476</v>
+      </c>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" t="s">
+        <v>452</v>
+      </c>
+      <c r="C38" t="s">
+        <v>476</v>
+      </c>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" t="s">
+        <v>476</v>
+      </c>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>450</v>
+      </c>
+      <c r="B40" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" t="s">
+        <v>476</v>
+      </c>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>451</v>
+      </c>
+      <c r="B41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" t="s">
+        <v>476</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>